--- a/docs/Mapping_casi_uso/matrimoni/Matr_010.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2940" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3906" uniqueCount="337">
   <si>
     <t>Sezione</t>
   </si>
@@ -638,306 +638,333 @@
     <t>Atto Consenso</t>
   </si>
   <si>
-    <t>evento.datiEventoMatrimonio.consensoRiconoscimento.riconoscimento.atto</t>
-  </si>
-  <si>
-    <t>Atto di riconoscimento - Dati prodotti</t>
+    <t>evento.datiEventoMatrimonio.consensoRiconoscimento.atto</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.consensoRiconoscimento.altroUfficiale</t>
+  </si>
+  <si>
+    <t>Sentenza di consenso</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.consensoRiconoscimento.sentenzaTribunale</t>
+  </si>
+  <si>
+    <t>Opposizione - Estinzione giudizio</t>
+  </si>
+  <si>
+    <t>Impedimento - Difetto di età</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.autorizzazioneDifettoEta</t>
+  </si>
+  <si>
+    <t>Impedimento - Parentela</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.autorizzazioneParentela</t>
+  </si>
+  <si>
+    <t>Impedimento - Divieto temporaneo</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.autorizzazioneDivietoTemporaneo</t>
+  </si>
+  <si>
+    <t>Legge regime patrimoniale</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale</t>
+  </si>
+  <si>
+    <t>legge</t>
+  </si>
+  <si>
+    <t>62-bis,184</t>
+  </si>
+  <si>
+    <t>Regime patrimoniale - Atto Notarile</t>
+  </si>
+  <si>
+    <t>Nome Notaio</t>
+  </si>
+  <si>
+    <t>nomeNotaio</t>
+  </si>
+  <si>
+    <t>Cognome Notaio</t>
+  </si>
+  <si>
+    <t>cognomeNotaio</t>
+  </si>
+  <si>
+    <t>Distretto Notarile del Notaio</t>
+  </si>
+  <si>
+    <t>distrettoNotarile</t>
+  </si>
+  <si>
+    <t>Data atto notarile della scelta del regime patrimoniale</t>
+  </si>
+  <si>
+    <t>dataAttoNotarile</t>
+  </si>
+  <si>
+    <t>Segretario comunale</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.segretarioComunale</t>
+  </si>
+  <si>
+    <t>Ruolo</t>
+  </si>
+  <si>
+    <t>ruoloSegretario</t>
+  </si>
+  <si>
+    <t>Padre Sposo</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].assistente[0]</t>
+  </si>
+  <si>
+    <t>Padre Sposa</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].assistente[0]</t>
+  </si>
+  <si>
+    <t>Madre Sposo</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].assistente[1]</t>
+  </si>
+  <si>
+    <t>Impedimento - Sposo</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.impedimentoSposo.certificato</t>
+  </si>
+  <si>
+    <t>Motivazione</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.impedimentoSposo</t>
+  </si>
+  <si>
+    <t>motivazione</t>
+  </si>
+  <si>
+    <t>Madre Sposa</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].assistente[1]</t>
+  </si>
+  <si>
+    <t>Impedimento - Sposa</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.impedimentoSposa.certificato</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.impedimentoSposa</t>
+  </si>
+  <si>
+    <t>Tutore Sposo</t>
+  </si>
+  <si>
+    <t>Curatore Sposo</t>
+  </si>
+  <si>
+    <t>Figlio</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.figli[0]</t>
+  </si>
+  <si>
+    <t>60,61</t>
+  </si>
+  <si>
+    <t>Figlio già riconosciuto dallo sposo</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.datiRiconoscimento[0]</t>
+  </si>
+  <si>
+    <t>giaRiconosciutoDaPadre</t>
+  </si>
+  <si>
+    <t>Figlio già riconosciuto dalla sposa</t>
+  </si>
+  <si>
+    <t>giaRiconosciutoDaMadre</t>
+  </si>
+  <si>
+    <t>Nomina Legale Sposo</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].nominaAssistenteLegale</t>
+  </si>
+  <si>
+    <t>Atto Nascita Figlio</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.datiRiconoscimento[0].attoNascita</t>
+  </si>
+  <si>
+    <t>Dati generali riconoscimento</t>
+  </si>
+  <si>
+    <t>Tutore Sposa</t>
+  </si>
+  <si>
+    <t>Curatore Sposa</t>
+  </si>
+  <si>
+    <t>Assenso figlio</t>
+  </si>
+  <si>
+    <t>Tipo dichiarazione assenso</t>
+  </si>
+  <si>
+    <t>assensoFiglio</t>
+  </si>
+  <si>
+    <t>Assenso reso dinanzi a</t>
+  </si>
+  <si>
+    <t>assensoReso</t>
+  </si>
+  <si>
+    <t>Nomina Legale Sposa</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].nominaAssistenteLegale</t>
+  </si>
+  <si>
+    <t>Dati Riconoscimento</t>
+  </si>
+  <si>
+    <t>evento.riconoscimento.atto</t>
+  </si>
+  <si>
+    <t>Dati Riconoscimento - Generalità discendenti - Matrimoni</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.datiRiconoscimento[0].discendenti[0]</t>
+  </si>
+  <si>
+    <t>Interprete</t>
+  </si>
+  <si>
+    <t>evento.interprete</t>
+  </si>
+  <si>
+    <t>66,68,70,71,72,64</t>
+  </si>
+  <si>
+    <t>Dettagli evento</t>
+  </si>
+  <si>
+    <t>Comprensione sposo</t>
+  </si>
+  <si>
+    <t>comprensioneSposo</t>
+  </si>
+  <si>
+    <t>Motivo impedimento scrittura sposo</t>
+  </si>
+  <si>
+    <t>motivoImpedimentoScritturaSposo</t>
+  </si>
+  <si>
+    <t>68,64</t>
+  </si>
+  <si>
+    <t>Comprensione sposa</t>
+  </si>
+  <si>
+    <t>comprensioneSposa</t>
+  </si>
+  <si>
+    <t>Motivo impedimento scrittura sposa</t>
+  </si>
+  <si>
+    <t>motivoImpedimentoScritturaSposa</t>
+  </si>
+  <si>
+    <t>Presenza interprete</t>
+  </si>
+  <si>
+    <t>ausilioInterprete</t>
+  </si>
+  <si>
+    <t>Numero di testimoni</t>
+  </si>
+  <si>
+    <t>numeroTestimoni</t>
+  </si>
+  <si>
+    <t>Pubblicazioni avvenute su più comuni</t>
+  </si>
+  <si>
+    <t>pubblicazioneInPiuComuni</t>
+  </si>
+  <si>
+    <t>Omissione di pubblicazione</t>
+  </si>
+  <si>
+    <t>omissionePubblicazione</t>
+  </si>
+  <si>
+    <t>Presente decreto che rigetta l'opposizione</t>
+  </si>
+  <si>
+    <t>rigettoOpposizione</t>
+  </si>
+  <si>
+    <t>Presente provvedimento che estingue il giudizio di opposizione</t>
+  </si>
+  <si>
+    <t>estintaOpposizione</t>
+  </si>
+  <si>
+    <t>Difetto di età</t>
+  </si>
+  <si>
+    <t>difettoEta</t>
+  </si>
+  <si>
+    <t>Parentela (ovvero: affinità; ovvero: affiliazione)</t>
+  </si>
+  <si>
+    <t>impedimentoParentela</t>
+  </si>
+  <si>
+    <t>Divieto temporaneo di nuove nozze</t>
+  </si>
+  <si>
+    <t>divietoTemporaneo</t>
+  </si>
+  <si>
+    <t>Numero di figli da riconoscere</t>
+  </si>
+  <si>
+    <t>numeroFigli</t>
+  </si>
+  <si>
+    <t>Figlio infraquattordicenne</t>
+  </si>
+  <si>
+    <t>infraQuattordicenne</t>
+  </si>
+  <si>
+    <t>Tipologia consenso</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.consensoRiconoscimento</t>
   </si>
   <si>
-    <t>evento.datiEventoMatrimonio.consensoRiconoscimento.altroUfficiale</t>
-  </si>
-  <si>
-    <t>Sentenza di consenso</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio.consensoRiconoscimento.sentenzaTribunale</t>
-  </si>
-  <si>
-    <t>Opposizione - Estinzione giudizio</t>
-  </si>
-  <si>
-    <t>Impedimento - Difetto di età</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio.autorizzazioneDifettoEta</t>
-  </si>
-  <si>
-    <t>Impedimento - Parentela</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio.autorizzazioneParentela</t>
-  </si>
-  <si>
-    <t>Impedimento - Divieto temporaneo</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio.autorizzazioneDivietoTemporaneo</t>
-  </si>
-  <si>
-    <t>Legge regime patrimoniale</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio.regimePatrimoniale</t>
-  </si>
-  <si>
-    <t>legge</t>
-  </si>
-  <si>
-    <t>62-bis,184</t>
-  </si>
-  <si>
-    <t>Regime patrimoniale - Atto Notarile</t>
-  </si>
-  <si>
-    <t>Nome Notaio</t>
-  </si>
-  <si>
-    <t>nomeNotaio</t>
-  </si>
-  <si>
-    <t>Cognome Notaio</t>
-  </si>
-  <si>
-    <t>cognomeNotaio</t>
-  </si>
-  <si>
-    <t>Distretto Notarile del Notaio</t>
-  </si>
-  <si>
-    <t>distrettoNotarile</t>
-  </si>
-  <si>
-    <t>Data atto notarile della scelta del regime patrimoniale</t>
-  </si>
-  <si>
-    <t>dataAttoNotarile</t>
-  </si>
-  <si>
-    <t>Regime patrimoniale - Generalità assistente legale minori</t>
-  </si>
-  <si>
-    <t>Presenza minori</t>
-  </si>
-  <si>
-    <t>presenzaMinori</t>
-  </si>
-  <si>
-    <t>Assistenza minori</t>
-  </si>
-  <si>
-    <t>assistenzaMinori</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenteLegale</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio.regimePatrimoniale.nominaAssistenteLegale</t>
-  </si>
-  <si>
-    <t>Segretario comunale</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio.segretarioComunale</t>
-  </si>
-  <si>
-    <t>Ruolo</t>
-  </si>
-  <si>
-    <t>ruoloSegretario</t>
-  </si>
-  <si>
-    <t>Impedimento - Sposo</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio.impedimentoSposo.certificato</t>
-  </si>
-  <si>
-    <t>Motivazione</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio.impedimentoSposo</t>
-  </si>
-  <si>
-    <t>motivazione</t>
-  </si>
-  <si>
-    <t>Impedimento - Sposa</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio.impedimentoSposa.certificato</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio.impedimentoSposa</t>
-  </si>
-  <si>
-    <t>Figlio</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio.figli[0]</t>
-  </si>
-  <si>
-    <t>60,61</t>
-  </si>
-  <si>
-    <t>Figlio già riconosciuto dallo sposo</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio.datiRiconoscimento[0]</t>
-  </si>
-  <si>
-    <t>giaRiconosciutoDaPadre</t>
-  </si>
-  <si>
-    <t>Figlio già riconosciuto dalla sposa</t>
-  </si>
-  <si>
-    <t>giaRiconosciutoDaMadre</t>
-  </si>
-  <si>
-    <t>Atto Nascita Figlio</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio.datiRiconoscimento[0].attoNascita</t>
-  </si>
-  <si>
-    <t>Assenso figlio</t>
-  </si>
-  <si>
-    <t>Tipo dichiarazione assenso</t>
-  </si>
-  <si>
-    <t>assensoFiglio</t>
-  </si>
-  <si>
-    <t>Assenso reso dinanzi a</t>
-  </si>
-  <si>
-    <t>assensoReso</t>
-  </si>
-  <si>
-    <t>Dati Riconoscimento</t>
-  </si>
-  <si>
-    <t>evento.riconoscimento.atto</t>
-  </si>
-  <si>
-    <t>Dati Riconoscimento - Generalità discendenti - Matrimoni</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio.datiRiconoscimento[0].discendenti[0]</t>
-  </si>
-  <si>
-    <t>Interprete</t>
-  </si>
-  <si>
-    <t>evento.interprete</t>
-  </si>
-  <si>
-    <t>66,68,70,71,72,64</t>
-  </si>
-  <si>
-    <t>Dettagli evento</t>
-  </si>
-  <si>
-    <t>Comprensione sposo</t>
-  </si>
-  <si>
-    <t>comprensioneSposo</t>
-  </si>
-  <si>
-    <t>Motivo impedimento scrittura sposo</t>
-  </si>
-  <si>
-    <t>motivoImpedimentoScritturaSposo</t>
-  </si>
-  <si>
-    <t>68,64</t>
-  </si>
-  <si>
-    <t>Comprensione sposa</t>
-  </si>
-  <si>
-    <t>comprensioneSposa</t>
-  </si>
-  <si>
-    <t>Motivo impedimento scrittura sposa</t>
-  </si>
-  <si>
-    <t>motivoImpedimentoScritturaSposa</t>
-  </si>
-  <si>
-    <t>Presenza interprete</t>
-  </si>
-  <si>
-    <t>ausilioInterprete</t>
-  </si>
-  <si>
-    <t>Numero di testimoni</t>
-  </si>
-  <si>
-    <t>numeroTestimoni</t>
-  </si>
-  <si>
-    <t>Pubblicazioni avvenute su più comuni</t>
-  </si>
-  <si>
-    <t>pubblicazioneInPiuComuni</t>
-  </si>
-  <si>
-    <t>Omissione di pubblicazione</t>
-  </si>
-  <si>
-    <t>omissionePubblicazione</t>
-  </si>
-  <si>
-    <t>Presente decreto che rigetta l'opposizione</t>
-  </si>
-  <si>
-    <t>rigettoOpposizione</t>
-  </si>
-  <si>
-    <t>Presente provvedimento che estingue il giudizio di opposizione</t>
-  </si>
-  <si>
-    <t>estintaOpposizione</t>
-  </si>
-  <si>
-    <t>Difetto di età</t>
-  </si>
-  <si>
-    <t>difettoEta</t>
-  </si>
-  <si>
-    <t>Parentela (ovvero: affinità; ovvero: affiliazione)</t>
-  </si>
-  <si>
-    <t>impedimentoParentela</t>
-  </si>
-  <si>
-    <t>Divieto temporaneo di nuove nozze</t>
-  </si>
-  <si>
-    <t>divietoTemporaneo</t>
-  </si>
-  <si>
-    <t>Numero di figli da riconoscere</t>
-  </si>
-  <si>
-    <t>numeroFigli</t>
-  </si>
-  <si>
-    <t>Figlio infraquattordicenne</t>
-  </si>
-  <si>
-    <t>infraQuattordicenne</t>
-  </si>
-  <si>
-    <t>Tipologia consenso</t>
-  </si>
-  <si>
     <t>tipoConsenso</t>
   </si>
   <si>
@@ -963,6 +990,21 @@
   </si>
   <si>
     <t>attoNotarile</t>
+  </si>
+  <si>
+    <t>Assistenza minore Sposo</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0]</t>
+  </si>
+  <si>
+    <t>tipoAssistente</t>
+  </si>
+  <si>
+    <t>Assistenza minore Sposa</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1]</t>
   </si>
   <si>
     <t>Annotazione Contestuale</t>
@@ -1039,7 +1081,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G490"/>
+  <dimension ref="A1:G651"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1048,7 +1090,7 @@
     <col min="1" max="1" width="52.546875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="94.6640625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="70.09375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="86.69140625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="32.48828125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
@@ -5950,7 +5992,7 @@
         <v>170</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="246">
@@ -5990,7 +6032,7 @@
         <v>174</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="248">
@@ -6030,7 +6072,7 @@
         <v>51</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="250">
@@ -6050,7 +6092,7 @@
         <v>179</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="251">
@@ -6070,7 +6112,7 @@
         <v>53</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="252">
@@ -6090,7 +6132,7 @@
         <v>182</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="253">
@@ -6110,7 +6152,7 @@
         <v>184</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="254">
@@ -6130,7 +6172,7 @@
         <v>186</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="255">
@@ -6138,19 +6180,19 @@
         <v>207</v>
       </c>
       <c r="B255" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D255" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C255" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="E255" s="2" t="s">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="256">
@@ -6158,19 +6200,19 @@
         <v>207</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="257">
@@ -6178,19 +6220,19 @@
         <v>207</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="258">
@@ -6198,16 +6240,16 @@
         <v>207</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>9</v>
@@ -6218,19 +6260,19 @@
         <v>207</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="260">
@@ -6238,16 +6280,16 @@
         <v>207</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>9</v>
@@ -6258,27 +6300,27 @@
         <v>207</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>8</v>
@@ -6287,27 +6329,27 @@
         <v>211</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>46</v>
@@ -6315,19 +6357,19 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>46</v>
@@ -6335,59 +6377,59 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>9</v>
@@ -6395,22 +6437,22 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="269">
@@ -6418,27 +6460,27 @@
         <v>212</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>8</v>
@@ -6447,7 +6489,7 @@
         <v>206</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>28</v>
@@ -6455,10 +6497,10 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>8</v>
@@ -6467,7 +6509,7 @@
         <v>206</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>28</v>
@@ -6475,10 +6517,10 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>8</v>
@@ -6487,18 +6529,18 @@
         <v>206</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>8</v>
@@ -6507,7 +6549,7 @@
         <v>206</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>9</v>
@@ -6515,10 +6557,10 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>8</v>
@@ -6527,7 +6569,7 @@
         <v>206</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>9</v>
@@ -6535,10 +6577,10 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>8</v>
@@ -6547,7 +6589,7 @@
         <v>206</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>9</v>
@@ -6555,39 +6597,39 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D276" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B276" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="E276" s="2" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>29</v>
@@ -6595,19 +6637,19 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>29</v>
@@ -6615,39 +6657,39 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>9</v>
@@ -6655,19 +6697,19 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>9</v>
@@ -6675,19 +6717,19 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>9</v>
@@ -6698,7 +6740,7 @@
         <v>215</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>8</v>
@@ -6707,27 +6749,27 @@
         <v>216</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>30</v>
@@ -6735,19 +6777,19 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>30</v>
@@ -6755,39 +6797,39 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>9</v>
@@ -6795,19 +6837,19 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>9</v>
@@ -6815,19 +6857,19 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>9</v>
@@ -6838,7 +6880,7 @@
         <v>217</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>8</v>
@@ -6847,27 +6889,27 @@
         <v>218</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>31</v>
@@ -6875,19 +6917,19 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>31</v>
@@ -6895,39 +6937,39 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>9</v>
@@ -6935,19 +6977,19 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>9</v>
@@ -6955,19 +6997,19 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>9</v>
@@ -6978,7 +7020,7 @@
         <v>219</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>8</v>
@@ -6987,35 +7029,35 @@
         <v>220</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>9</v>
+        <v>222</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>224</v>
+        <v>34</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>226</v>
@@ -7024,7 +7066,7 @@
         <v>8</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E299" s="2" t="s">
         <v>227</v>
@@ -7035,7 +7077,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>228</v>
@@ -7044,7 +7086,7 @@
         <v>8</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E300" s="2" t="s">
         <v>229</v>
@@ -7055,7 +7097,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>230</v>
@@ -7064,50 +7106,50 @@
         <v>8</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E301" s="2" t="s">
         <v>231</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>232</v>
+        <v>91</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>233</v>
+        <v>97</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>235</v>
+        <v>93</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>236</v>
+        <v>99</v>
       </c>
       <c r="F303" s="2" t="s">
         <v>9</v>
@@ -7115,19 +7157,19 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B304" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B304" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="C304" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>222</v>
+        <v>82</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F304" s="2" t="s">
         <v>9</v>
@@ -7135,7 +7177,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>91</v>
@@ -7144,18 +7186,18 @@
         <v>8</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E305" s="2" t="s">
         <v>97</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>93</v>
@@ -7164,18 +7206,18 @@
         <v>8</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E306" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>100</v>
@@ -7184,7 +7226,7 @@
         <v>8</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E307" s="2" t="s">
         <v>101</v>
@@ -7195,7 +7237,7 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>102</v>
@@ -7204,18 +7246,18 @@
         <v>8</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>103</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>104</v>
@@ -7224,7 +7266,7 @@
         <v>8</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E309" s="2" t="s">
         <v>105</v>
@@ -7235,7 +7277,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>106</v>
@@ -7244,18 +7286,18 @@
         <v>8</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>107</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>108</v>
@@ -7264,7 +7306,7 @@
         <v>8</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>109</v>
@@ -7275,7 +7317,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>110</v>
@@ -7284,18 +7326,18 @@
         <v>8</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E312" s="2" t="s">
         <v>111</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>112</v>
@@ -7304,7 +7346,7 @@
         <v>8</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E313" s="2" t="s">
         <v>113</v>
@@ -7315,7 +7357,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>114</v>
@@ -7324,18 +7366,18 @@
         <v>8</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E314" s="2" t="s">
         <v>115</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>116</v>
@@ -7344,7 +7386,7 @@
         <v>8</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E315" s="2" t="s">
         <v>117</v>
@@ -7355,7 +7397,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>118</v>
@@ -7364,7 +7406,7 @@
         <v>8</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E316" s="2" t="s">
         <v>119</v>
@@ -7375,7 +7417,7 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>120</v>
@@ -7384,7 +7426,7 @@
         <v>8</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E317" s="2" t="s">
         <v>121</v>
@@ -7395,7 +7437,7 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>122</v>
@@ -7404,7 +7446,7 @@
         <v>8</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E318" s="2" t="s">
         <v>123</v>
@@ -7415,7 +7457,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>124</v>
@@ -7424,7 +7466,7 @@
         <v>8</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E319" s="2" t="s">
         <v>125</v>
@@ -7435,7 +7477,7 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>126</v>
@@ -7444,7 +7486,7 @@
         <v>8</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E320" s="2" t="s">
         <v>127</v>
@@ -7455,7 +7497,7 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>128</v>
@@ -7464,7 +7506,7 @@
         <v>8</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E321" s="2" t="s">
         <v>129</v>
@@ -7475,7 +7517,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>130</v>
@@ -7484,7 +7526,7 @@
         <v>8</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E322" s="2" t="s">
         <v>131</v>
@@ -7495,7 +7537,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>132</v>
@@ -7504,7 +7546,7 @@
         <v>8</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E323" s="2" t="s">
         <v>133</v>
@@ -7515,7 +7557,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>134</v>
@@ -7524,7 +7566,7 @@
         <v>8</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E324" s="2" t="s">
         <v>135</v>
@@ -7535,7 +7577,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>136</v>
@@ -7544,7 +7586,7 @@
         <v>8</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E325" s="2" t="s">
         <v>137</v>
@@ -7555,7 +7597,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>138</v>
@@ -7564,7 +7606,7 @@
         <v>8</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E326" s="2" t="s">
         <v>139</v>
@@ -7575,19 +7617,19 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>188</v>
+        <v>91</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>190</v>
+        <v>97</v>
       </c>
       <c r="F327" s="2" t="s">
         <v>9</v>
@@ -7595,39 +7637,39 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>191</v>
+        <v>93</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>192</v>
+        <v>99</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>194</v>
+        <v>101</v>
       </c>
       <c r="F329" s="2" t="s">
         <v>9</v>
@@ -7635,19 +7677,19 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>196</v>
+        <v>103</v>
       </c>
       <c r="F330" s="2" t="s">
         <v>9</v>
@@ -7655,19 +7697,19 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>197</v>
+        <v>104</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>198</v>
+        <v>105</v>
       </c>
       <c r="F331" s="2" t="s">
         <v>9</v>
@@ -7675,19 +7717,19 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>199</v>
+        <v>106</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>200</v>
+        <v>107</v>
       </c>
       <c r="F332" s="2" t="s">
         <v>9</v>
@@ -7695,19 +7737,19 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>201</v>
+        <v>108</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>202</v>
+        <v>109</v>
       </c>
       <c r="F333" s="2" t="s">
         <v>9</v>
@@ -7715,39 +7757,39 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="F335" s="2" t="s">
         <v>9</v>
@@ -7755,19 +7797,19 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>243</v>
+        <v>114</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>82</v>
+        <v>239</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>244</v>
+        <v>115</v>
       </c>
       <c r="F336" s="2" t="s">
         <v>9</v>
@@ -7775,39 +7817,39 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>188</v>
+        <v>116</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>190</v>
+        <v>117</v>
       </c>
       <c r="F337" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>192</v>
+        <v>119</v>
       </c>
       <c r="F338" s="2" t="s">
         <v>9</v>
@@ -7815,39 +7857,39 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>193</v>
+        <v>120</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>194</v>
+        <v>121</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>196</v>
+        <v>123</v>
       </c>
       <c r="F340" s="2" t="s">
         <v>9</v>
@@ -7855,19 +7897,19 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>197</v>
+        <v>124</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>198</v>
+        <v>125</v>
       </c>
       <c r="F341" s="2" t="s">
         <v>9</v>
@@ -7875,19 +7917,19 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>199</v>
+        <v>126</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>200</v>
+        <v>127</v>
       </c>
       <c r="F342" s="2" t="s">
         <v>9</v>
@@ -7895,19 +7937,19 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>201</v>
+        <v>128</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="F343" s="2" t="s">
         <v>9</v>
@@ -7915,59 +7957,59 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>247</v>
+        <v>130</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>249</v>
+        <v>131</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="F345" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>192</v>
+        <v>135</v>
       </c>
       <c r="F346" s="2" t="s">
         <v>9</v>
@@ -7975,39 +8017,39 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="F348" s="2" t="s">
         <v>9</v>
@@ -8015,19 +8057,19 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>197</v>
+        <v>91</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>198</v>
+        <v>97</v>
       </c>
       <c r="F349" s="2" t="s">
         <v>9</v>
@@ -8035,19 +8077,19 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>199</v>
+        <v>93</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>200</v>
+        <v>99</v>
       </c>
       <c r="F350" s="2" t="s">
         <v>9</v>
@@ -8055,19 +8097,19 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>201</v>
+        <v>100</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="F351" s="2" t="s">
         <v>9</v>
@@ -8075,79 +8117,79 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>247</v>
+        <v>102</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>249</v>
+        <v>103</v>
       </c>
       <c r="F352" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F353" s="2" t="s">
-        <v>255</v>
+        <v>9</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F354" s="2" t="s">
-        <v>255</v>
+        <v>9</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F355" s="2" t="s">
         <v>9</v>
@@ -8155,19 +8197,19 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F356" s="2" t="s">
         <v>9</v>
@@ -8175,19 +8217,19 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F357" s="2" t="s">
         <v>9</v>
@@ -8195,19 +8237,19 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F358" s="2" t="s">
         <v>9</v>
@@ -8215,19 +8257,19 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="F359" s="2" t="s">
         <v>9</v>
@@ -8235,19 +8277,19 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="F360" s="2" t="s">
         <v>9</v>
@@ -8255,19 +8297,19 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F361" s="2" t="s">
         <v>9</v>
@@ -8275,19 +8317,19 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F362" s="2" t="s">
         <v>9</v>
@@ -8295,19 +8337,19 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F363" s="2" t="s">
         <v>9</v>
@@ -8315,19 +8357,19 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F364" s="2" t="s">
         <v>9</v>
@@ -8335,19 +8377,19 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F365" s="2" t="s">
         <v>9</v>
@@ -8355,19 +8397,19 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F366" s="2" t="s">
         <v>9</v>
@@ -8375,19 +8417,19 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F367" s="2" t="s">
         <v>9</v>
@@ -8395,19 +8437,19 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F368" s="2" t="s">
         <v>9</v>
@@ -8415,19 +8457,19 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F369" s="2" t="s">
         <v>9</v>
@@ -8435,19 +8477,19 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F370" s="2" t="s">
         <v>9</v>
@@ -8455,39 +8497,39 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>132</v>
+        <v>188</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="F371" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>134</v>
+        <v>191</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="F372" s="2" t="s">
         <v>9</v>
@@ -8495,39 +8537,39 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>137</v>
+        <v>194</v>
       </c>
       <c r="F373" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="F374" s="2" t="s">
         <v>9</v>
@@ -8535,19 +8577,19 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>256</v>
+        <v>197</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="F375" s="2" t="s">
         <v>9</v>
@@ -8555,19 +8597,19 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>259</v>
+        <v>199</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="F376" s="2" t="s">
         <v>9</v>
@@ -8575,59 +8617,59 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>97</v>
+        <v>202</v>
       </c>
       <c r="F377" s="2" t="s">
-        <v>255</v>
+        <v>9</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>93</v>
+        <v>244</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>99</v>
+        <v>246</v>
       </c>
       <c r="F378" s="2" t="s">
-        <v>255</v>
+        <v>24</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F379" s="2" t="s">
         <v>9</v>
@@ -8635,19 +8677,19 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F380" s="2" t="s">
         <v>9</v>
@@ -8655,19 +8697,19 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F381" s="2" t="s">
         <v>9</v>
@@ -8675,19 +8717,19 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F382" s="2" t="s">
         <v>9</v>
@@ -8695,19 +8737,19 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F383" s="2" t="s">
         <v>9</v>
@@ -8715,19 +8757,19 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F384" s="2" t="s">
         <v>9</v>
@@ -8735,19 +8777,19 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F385" s="2" t="s">
         <v>9</v>
@@ -8755,19 +8797,19 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F386" s="2" t="s">
         <v>9</v>
@@ -8775,19 +8817,19 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F387" s="2" t="s">
         <v>9</v>
@@ -8795,19 +8837,19 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F388" s="2" t="s">
         <v>9</v>
@@ -8815,19 +8857,19 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F389" s="2" t="s">
         <v>9</v>
@@ -8835,19 +8877,19 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F390" s="2" t="s">
         <v>9</v>
@@ -8855,19 +8897,19 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E391" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F391" s="2" t="s">
         <v>9</v>
@@ -8875,19 +8917,19 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F392" s="2" t="s">
         <v>9</v>
@@ -8895,19 +8937,19 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F393" s="2" t="s">
         <v>9</v>
@@ -8915,19 +8957,19 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F394" s="2" t="s">
         <v>9</v>
@@ -8935,19 +8977,19 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F395" s="2" t="s">
         <v>9</v>
@@ -8955,19 +8997,19 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F396" s="2" t="s">
         <v>9</v>
@@ -8975,19 +9017,19 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F397" s="2" t="s">
         <v>9</v>
@@ -8995,19 +9037,19 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F398" s="2" t="s">
         <v>9</v>
@@ -9015,19 +9057,19 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="F399" s="2" t="s">
         <v>9</v>
@@ -9035,19 +9077,19 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="F400" s="2" t="s">
         <v>9</v>
@@ -9055,39 +9097,39 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="F401" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="F402" s="2" t="s">
         <v>9</v>
@@ -9095,39 +9137,39 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="F403" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="F404" s="2" t="s">
         <v>9</v>
@@ -9135,19 +9177,19 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="F405" s="2" t="s">
         <v>9</v>
@@ -9155,19 +9197,19 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="F406" s="2" t="s">
         <v>9</v>
@@ -9175,19 +9217,19 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>53</v>
+        <v>202</v>
       </c>
       <c r="F407" s="2" t="s">
         <v>9</v>
@@ -9195,79 +9237,79 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>181</v>
+        <v>244</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="E408" s="2" t="s">
-        <v>182</v>
+        <v>246</v>
       </c>
       <c r="F408" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>183</v>
+        <v>91</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="F409" s="2" t="s">
-        <v>255</v>
+        <v>9</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>186</v>
+        <v>99</v>
       </c>
       <c r="F410" s="2" t="s">
-        <v>255</v>
+        <v>9</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>264</v>
+        <v>100</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>265</v>
+        <v>101</v>
       </c>
       <c r="F411" s="2" t="s">
         <v>9</v>
@@ -9275,39 +9317,39 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>266</v>
+        <v>102</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>267</v>
+        <v>103</v>
       </c>
       <c r="F412" s="2" t="s">
-        <v>255</v>
+        <v>9</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="F413" s="2" t="s">
         <v>9</v>
@@ -9315,19 +9357,19 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="E414" s="2" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="F414" s="2" t="s">
         <v>9</v>
@@ -9335,19 +9377,19 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="E415" s="2" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="F415" s="2" t="s">
         <v>9</v>
@@ -9355,19 +9397,19 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="E416" s="2" t="s">
-        <v>172</v>
+        <v>111</v>
       </c>
       <c r="F416" s="2" t="s">
         <v>9</v>
@@ -9375,19 +9417,19 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="E417" s="2" t="s">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="F417" s="2" t="s">
         <v>9</v>
@@ -9395,19 +9437,19 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="F418" s="2" t="s">
         <v>9</v>
@@ -9415,19 +9457,19 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>177</v>
+        <v>116</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="F419" s="2" t="s">
         <v>9</v>
@@ -9435,19 +9477,19 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="E420" s="2" t="s">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c r="F420" s="2" t="s">
         <v>9</v>
@@ -9455,19 +9497,19 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="E421" s="2" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="F421" s="2" t="s">
         <v>9</v>
@@ -9475,19 +9517,19 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="E422" s="2" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="F422" s="2" t="s">
         <v>9</v>
@@ -9495,19 +9537,19 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="F423" s="2" t="s">
         <v>9</v>
@@ -9515,19 +9557,19 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="E424" s="2" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="F424" s="2" t="s">
         <v>9</v>
@@ -9535,19 +9577,19 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="E425" s="2" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="F425" s="2" t="s">
         <v>9</v>
@@ -9555,19 +9597,19 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="E426" s="2" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="F426" s="2" t="s">
         <v>9</v>
@@ -9575,19 +9617,19 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="E427" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="F427" s="2" t="s">
         <v>9</v>
@@ -9595,19 +9637,19 @@
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F428" s="2" t="s">
         <v>9</v>
@@ -9615,19 +9657,19 @@
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="E429" s="2" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="F429" s="2" t="s">
         <v>9</v>
@@ -9635,19 +9677,19 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="F430" s="2" t="s">
         <v>9</v>
@@ -9655,19 +9697,19 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="E431" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F431" s="2" t="s">
         <v>9</v>
@@ -9675,19 +9717,19 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F432" s="2" t="s">
         <v>9</v>
@@ -9695,19 +9737,19 @@
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F433" s="2" t="s">
         <v>9</v>
@@ -9715,19 +9757,19 @@
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F434" s="2" t="s">
         <v>9</v>
@@ -9735,19 +9777,19 @@
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="E435" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F435" s="2" t="s">
         <v>9</v>
@@ -9755,19 +9797,19 @@
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F436" s="2" t="s">
         <v>9</v>
@@ -9775,19 +9817,19 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F437" s="2" t="s">
         <v>9</v>
@@ -9795,19 +9837,19 @@
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="E438" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F438" s="2" t="s">
         <v>9</v>
@@ -9815,19 +9857,19 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F439" s="2" t="s">
         <v>9</v>
@@ -9835,19 +9877,19 @@
     </row>
     <row r="440">
       <c r="A440" s="2" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="E440" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F440" s="2" t="s">
         <v>9</v>
@@ -9855,19 +9897,19 @@
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="E441" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="F441" s="2" t="s">
         <v>9</v>
@@ -9875,19 +9917,19 @@
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="F442" s="2" t="s">
         <v>9</v>
@@ -9895,19 +9937,19 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F443" s="2" t="s">
         <v>9</v>
@@ -9915,19 +9957,19 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F444" s="2" t="s">
         <v>9</v>
@@ -9935,19 +9977,19 @@
     </row>
     <row r="445">
       <c r="A445" s="2" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="E445" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F445" s="2" t="s">
         <v>9</v>
@@ -9955,19 +9997,19 @@
     </row>
     <row r="446">
       <c r="A446" s="2" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F446" s="2" t="s">
         <v>9</v>
@@ -9975,59 +10017,59 @@
     </row>
     <row r="447">
       <c r="A447" s="2" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="E447" s="2" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="F447" s="2" t="s">
-        <v>274</v>
+        <v>9</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="E448" s="2" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="F448" s="2" t="s">
-        <v>274</v>
+        <v>9</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="E449" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="F449" s="2" t="s">
         <v>9</v>
@@ -10035,39 +10077,39 @@
     </row>
     <row r="450">
       <c r="A450" s="2" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="E450" s="2" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F450" s="2" t="s">
-        <v>274</v>
+        <v>9</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="F451" s="2" t="s">
         <v>9</v>
@@ -10075,19 +10117,19 @@
     </row>
     <row r="452">
       <c r="A452" s="2" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="E452" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="F452" s="2" t="s">
         <v>9</v>
@@ -10095,59 +10137,59 @@
     </row>
     <row r="453">
       <c r="A453" s="2" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F453" s="2" t="s">
-        <v>9</v>
+        <v>256</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="E454" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F454" s="2" t="s">
-        <v>9</v>
+        <v>256</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="E455" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F455" s="2" t="s">
         <v>9</v>
@@ -10155,39 +10197,39 @@
     </row>
     <row r="456">
       <c r="A456" s="2" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F456" s="2" t="s">
-        <v>274</v>
+        <v>9</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F457" s="2" t="s">
         <v>9</v>
@@ -10195,39 +10237,39 @@
     </row>
     <row r="458">
       <c r="A458" s="2" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="E458" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F458" s="2" t="s">
-        <v>274</v>
+        <v>9</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F459" s="2" t="s">
         <v>9</v>
@@ -10235,19 +10277,19 @@
     </row>
     <row r="460">
       <c r="A460" s="2" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="E460" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F460" s="2" t="s">
         <v>9</v>
@@ -10255,19 +10297,19 @@
     </row>
     <row r="461">
       <c r="A461" s="2" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="E461" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F461" s="2" t="s">
         <v>9</v>
@@ -10275,19 +10317,19 @@
     </row>
     <row r="462">
       <c r="A462" s="2" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="E462" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F462" s="2" t="s">
         <v>9</v>
@@ -10295,19 +10337,19 @@
     </row>
     <row r="463">
       <c r="A463" s="2" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="F463" s="2" t="s">
         <v>9</v>
@@ -10315,39 +10357,39 @@
     </row>
     <row r="464">
       <c r="A464" s="2" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="E464" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="F464" s="2" t="s">
-        <v>274</v>
+        <v>9</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="E465" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F465" s="2" t="s">
         <v>9</v>
@@ -10355,19 +10397,19 @@
     </row>
     <row r="466">
       <c r="A466" s="2" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="E466" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F466" s="2" t="s">
         <v>9</v>
@@ -10375,19 +10417,19 @@
     </row>
     <row r="467">
       <c r="A467" s="2" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="E467" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F467" s="2" t="s">
         <v>9</v>
@@ -10395,19 +10437,19 @@
     </row>
     <row r="468">
       <c r="A468" s="2" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="E468" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F468" s="2" t="s">
         <v>9</v>
@@ -10415,19 +10457,19 @@
     </row>
     <row r="469">
       <c r="A469" s="2" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>276</v>
+        <v>128</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>82</v>
+        <v>255</v>
       </c>
       <c r="E469" s="2" t="s">
-        <v>277</v>
+        <v>129</v>
       </c>
       <c r="F469" s="2" t="s">
         <v>9</v>
@@ -10435,39 +10477,39 @@
     </row>
     <row r="470">
       <c r="A470" s="2" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>278</v>
+        <v>130</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>82</v>
+        <v>255</v>
       </c>
       <c r="E470" s="2" t="s">
-        <v>279</v>
+        <v>131</v>
       </c>
       <c r="F470" s="2" t="s">
-        <v>280</v>
+        <v>9</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>281</v>
+        <v>132</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>82</v>
+        <v>255</v>
       </c>
       <c r="E471" s="2" t="s">
-        <v>282</v>
+        <v>133</v>
       </c>
       <c r="F471" s="2" t="s">
         <v>9</v>
@@ -10475,19 +10517,19 @@
     </row>
     <row r="472">
       <c r="A472" s="2" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>283</v>
+        <v>134</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>82</v>
+        <v>255</v>
       </c>
       <c r="E472" s="2" t="s">
-        <v>284</v>
+        <v>135</v>
       </c>
       <c r="F472" s="2" t="s">
         <v>9</v>
@@ -10495,19 +10537,19 @@
     </row>
     <row r="473">
       <c r="A473" s="2" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>285</v>
+        <v>136</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>50</v>
+        <v>255</v>
       </c>
       <c r="E473" s="2" t="s">
-        <v>286</v>
+        <v>137</v>
       </c>
       <c r="F473" s="2" t="s">
         <v>9</v>
@@ -10515,19 +10557,19 @@
     </row>
     <row r="474">
       <c r="A474" s="2" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>287</v>
+        <v>138</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>82</v>
+        <v>255</v>
       </c>
       <c r="E474" s="2" t="s">
-        <v>288</v>
+        <v>139</v>
       </c>
       <c r="F474" s="2" t="s">
         <v>9</v>
@@ -10535,19 +10577,19 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>82</v>
+        <v>258</v>
       </c>
       <c r="E475" s="2" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="F475" s="2" t="s">
         <v>9</v>
@@ -10555,79 +10597,79 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>82</v>
+        <v>258</v>
       </c>
       <c r="E476" s="2" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="F476" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>293</v>
+        <v>91</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>82</v>
+        <v>255</v>
       </c>
       <c r="E477" s="2" t="s">
-        <v>294</v>
+        <v>97</v>
       </c>
       <c r="F477" s="2" t="s">
-        <v>9</v>
+        <v>256</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>295</v>
+        <v>93</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>82</v>
+        <v>255</v>
       </c>
       <c r="E478" s="2" t="s">
-        <v>296</v>
+        <v>99</v>
       </c>
       <c r="F478" s="2" t="s">
-        <v>9</v>
+        <v>256</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>297</v>
+        <v>100</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>82</v>
+        <v>255</v>
       </c>
       <c r="E479" s="2" t="s">
-        <v>298</v>
+        <v>101</v>
       </c>
       <c r="F479" s="2" t="s">
         <v>9</v>
@@ -10635,19 +10677,19 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>299</v>
+        <v>102</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>82</v>
+        <v>255</v>
       </c>
       <c r="E480" s="2" t="s">
-        <v>300</v>
+        <v>103</v>
       </c>
       <c r="F480" s="2" t="s">
         <v>9</v>
@@ -10655,19 +10697,19 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>301</v>
+        <v>104</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>82</v>
+        <v>255</v>
       </c>
       <c r="E481" s="2" t="s">
-        <v>302</v>
+        <v>105</v>
       </c>
       <c r="F481" s="2" t="s">
         <v>9</v>
@@ -10675,19 +10717,19 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>303</v>
+        <v>106</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>82</v>
+        <v>255</v>
       </c>
       <c r="E482" s="2" t="s">
-        <v>304</v>
+        <v>107</v>
       </c>
       <c r="F482" s="2" t="s">
         <v>9</v>
@@ -10695,19 +10737,19 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>305</v>
+        <v>108</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E483" s="2" t="s">
-        <v>306</v>
+        <v>109</v>
       </c>
       <c r="F483" s="2" t="s">
         <v>9</v>
@@ -10715,19 +10757,19 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>307</v>
+        <v>110</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="E484" s="2" t="s">
-        <v>308</v>
+        <v>111</v>
       </c>
       <c r="F484" s="2" t="s">
         <v>9</v>
@@ -10735,19 +10777,19 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>309</v>
+        <v>112</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E485" s="2" t="s">
-        <v>310</v>
+        <v>113</v>
       </c>
       <c r="F485" s="2" t="s">
         <v>9</v>
@@ -10755,19 +10797,19 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>311</v>
+        <v>114</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>82</v>
+        <v>255</v>
       </c>
       <c r="E486" s="2" t="s">
-        <v>312</v>
+        <v>115</v>
       </c>
       <c r="F486" s="2" t="s">
         <v>9</v>
@@ -10775,19 +10817,19 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>313</v>
+        <v>116</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="E487" s="2" t="s">
-        <v>314</v>
+        <v>117</v>
       </c>
       <c r="F487" s="2" t="s">
         <v>9</v>
@@ -10795,19 +10837,19 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>315</v>
+        <v>118</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="E488" s="2" t="s">
-        <v>316</v>
+        <v>119</v>
       </c>
       <c r="F488" s="2" t="s">
         <v>9</v>
@@ -10815,19 +10857,19 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="s">
-        <v>317</v>
+        <v>254</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>318</v>
+        <v>120</v>
       </c>
       <c r="C489" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>319</v>
+        <v>255</v>
       </c>
       <c r="E489" s="2" t="s">
-        <v>320</v>
+        <v>121</v>
       </c>
       <c r="F489" s="2" t="s">
         <v>9</v>
@@ -10835,21 +10877,3241 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C490" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D490" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E490" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F490" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C491" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D491" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E491" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F491" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C492" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D492" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E492" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F492" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C493" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D493" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E493" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F493" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C494" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D494" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E494" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F494" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C495" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D495" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E495" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F495" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C496" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D496" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E496" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F496" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C497" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D497" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E497" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F497" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B498" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C498" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D498" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E498" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F498" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C499" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D499" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E499" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F499" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C500" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D500" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E500" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F500" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C501" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D501" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E501" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F501" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C502" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D502" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E502" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F502" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C503" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D503" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E503" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F503" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C504" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D504" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E504" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F504" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C505" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D505" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E505" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F505" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C506" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D506" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E506" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F506" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C507" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D507" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E507" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F507" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C508" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D508" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E508" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F508" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C509" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D509" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E509" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F509" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C510" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D510" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E510" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F510" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B511" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C511" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D511" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E511" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F511" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C512" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D512" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E512" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F512" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B513" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C513" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D513" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E513" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F513" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C514" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D514" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E514" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F514" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C515" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D515" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E515" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F515" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C516" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D516" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E516" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F516" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C517" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D517" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E517" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F517" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C518" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D518" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E518" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F518" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C519" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D519" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E519" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F519" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C520" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D520" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E520" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F520" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C521" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D521" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E521" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F521" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B522" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C522" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D522" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E522" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F522" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B523" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C523" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D523" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E523" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F523" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B524" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C524" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D524" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E524" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F524" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B525" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C525" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D525" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E525" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F525" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C526" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D526" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E526" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F526" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C527" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D527" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E527" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F527" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C528" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D528" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E528" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F528" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C529" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D529" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E529" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F529" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C530" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D530" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E530" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F530" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B531" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C531" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D531" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E531" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F531" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C532" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D532" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E532" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F532" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C533" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D533" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E533" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F533" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B534" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C534" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D534" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E534" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F534" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B535" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C535" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D535" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E535" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F535" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C536" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D536" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E536" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F536" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B537" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C537" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D537" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E537" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F537" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B538" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C538" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D538" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E538" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F538" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C539" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D539" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E539" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F539" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C540" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D540" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E540" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F540" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C541" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D541" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E541" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F541" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C542" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D542" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E542" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F542" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C543" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D543" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E543" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F543" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C544" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D544" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E544" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F544" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C545" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D545" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E545" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F545" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B546" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C546" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D546" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E546" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F546" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B547" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C547" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D547" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E547" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F547" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B548" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C548" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D548" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E548" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F548" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C549" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D549" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E549" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F549" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B550" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C550" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D550" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E550" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F550" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C551" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D551" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E551" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F551" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B552" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C552" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D552" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E552" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F552" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B553" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C553" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D553" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E553" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F553" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B554" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C554" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D554" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E554" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F554" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B555" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C555" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D555" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E555" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F555" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C556" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D556" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E556" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F556" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B557" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C557" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D557" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E557" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F557" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B558" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C558" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D558" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E558" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F558" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B559" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C559" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D559" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E559" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F559" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B560" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C560" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D560" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E560" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F560" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B561" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C561" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D561" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E561" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F561" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B562" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C562" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D562" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E562" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F562" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B563" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C563" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D563" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E563" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F563" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B564" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C564" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D564" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E564" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F564" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B565" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C565" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D565" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E565" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F565" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B566" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C566" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D566" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E566" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F566" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B567" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C567" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D567" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E567" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F567" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B568" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C568" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D568" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E568" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F568" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B569" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C569" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D569" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E569" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F569" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B570" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C570" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D570" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E570" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F570" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B571" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C571" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D571" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E571" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F571" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B572" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C572" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D572" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E572" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F572" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B573" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C573" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D573" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E573" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F573" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B574" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C574" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D574" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E574" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F574" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B575" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C575" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D575" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E575" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F575" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B576" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C576" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D576" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E576" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F576" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B577" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C577" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D577" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E577" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F577" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B578" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C578" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D578" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E578" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F578" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B579" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C579" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D579" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E579" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F579" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B580" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C580" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D580" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E580" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F580" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B581" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C581" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D581" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E581" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F581" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B582" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C582" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D582" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E582" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F582" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B583" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C583" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D583" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E583" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F583" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B584" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C584" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D584" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E584" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F584" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B585" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C585" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D585" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E585" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F585" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B586" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C586" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D586" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E586" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F586" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B587" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C587" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D587" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E587" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F587" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B588" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C588" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D588" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E588" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F588" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B589" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C589" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D589" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E589" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F589" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B590" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C590" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D590" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E590" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F590" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B591" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C591" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D591" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E591" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F591" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B592" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C592" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D592" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E592" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F592" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B593" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C593" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D593" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E593" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F593" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B594" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C594" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D594" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E594" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F594" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B595" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C595" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D595" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E595" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F595" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B596" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C596" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D596" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E596" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F596" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B597" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C597" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D597" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E597" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F597" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B598" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C598" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D598" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E598" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F598" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B599" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C599" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D599" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E599" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F599" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B600" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C600" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D600" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E600" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F600" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B601" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C601" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D601" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E601" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F601" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B602" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C602" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D602" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E602" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F602" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B603" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C603" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D603" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E603" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F603" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B604" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C604" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D604" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E604" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F604" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B605" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C605" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D605" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E605" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F605" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B606" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C606" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D606" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E606" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F606" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B607" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C607" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D607" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E607" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F607" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B608" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C608" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D608" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E608" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F608" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B609" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C609" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D609" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E609" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F609" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B610" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C610" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D610" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E610" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F610" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B611" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C611" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D611" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E611" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F611" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B612" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C612" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D612" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E612" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F612" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B613" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C613" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D613" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E613" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F613" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B614" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C614" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D614" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E614" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F614" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B615" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C615" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D615" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E615" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F615" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B616" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C616" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D616" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E616" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F616" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B617" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C617" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D617" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E617" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F617" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B618" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C618" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D618" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E618" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F618" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B619" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C619" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D619" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E619" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F619" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B620" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C620" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D620" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E620" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F620" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B621" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C621" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D621" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E621" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F621" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B622" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C622" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D622" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E622" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F622" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B623" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C623" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D623" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E623" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F623" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B624" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C624" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D624" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E624" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F624" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B625" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C625" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D625" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E625" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F625" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B626" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C626" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D626" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E626" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F626" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B627" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C627" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D627" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E627" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F627" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B628" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C628" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D628" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E628" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F628" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B629" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C629" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D629" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E629" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F629" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B630" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C630" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D630" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E630" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F630" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B631" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C631" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D631" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E631" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F631" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B632" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C632" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D632" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E632" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F632" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B633" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C633" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D633" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E633" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F633" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B634" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C634" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D634" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E634" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F634" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B635" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C635" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D635" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E635" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F635" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B636" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C636" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D636" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E636" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F636" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B637" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C637" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D637" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E637" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F637" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B638" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C638" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D638" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E638" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F638" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B639" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C639" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D639" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E639" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F639" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B640" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C640" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D640" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E640" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F640" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B641" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C641" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D641" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E641" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F641" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B642" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C642" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D642" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E642" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F642" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B643" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C643" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D643" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E643" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B490" s="2" t="s">
+      <c r="F643" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B644" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C644" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D644" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E644" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F644" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B645" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C645" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D645" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E645" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C490" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D490" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E490" s="2" t="s">
+      <c r="F645" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B646" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="F490" s="2" t="s">
+      <c r="C646" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D646" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E646" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F646" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B647" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C647" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D647" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E647" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F647" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B648" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C648" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D648" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E648" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F648" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B649" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C649" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D649" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E649" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F649" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B650" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C650" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D650" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E650" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F650" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B651" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C651" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D651" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E651" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F651" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_010.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4543" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4543" uniqueCount="374">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -797,31 +797,25 @@
     <t>ruoloSegretario</t>
   </si>
   <si>
-    <t>Padre Sposo</t>
+    <t>Generalità padre Sposo - Matrimonio</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].assistente[0]</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].tipoAssistente,in,(2,4,5,99)}</t>
-  </si>
-  <si>
-    <t>Padre Sposa</t>
+    <t>Generalità padre Sposa - Matrimonio</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].assistente[0]</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].tipoAssistente,in,(2,4,5,99)}</t>
+    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].tipoAssistente,in,(1,4,5,99)}</t>
   </si>
   <si>
     <t>Madre Sposo</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].assistente[1]</t>
-  </si>
-  <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].tipoAssistente,in,(1,4,5,99)}</t>
   </si>
   <si>
     <t>Impedimento - Sposo</t>
@@ -8225,7 +8219,7 @@
         <v>10</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>263</v>
+        <v>60</v>
       </c>
     </row>
     <row r="306">
@@ -8248,7 +8242,7 @@
         <v>10</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>263</v>
+        <v>60</v>
       </c>
     </row>
     <row r="307">
@@ -8271,7 +8265,7 @@
         <v>10</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>263</v>
+        <v>60</v>
       </c>
     </row>
     <row r="308">
@@ -8294,7 +8288,7 @@
         <v>10</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>263</v>
+        <v>60</v>
       </c>
     </row>
     <row r="309">
@@ -8317,7 +8311,7 @@
         <v>10</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>263</v>
+        <v>60</v>
       </c>
     </row>
     <row r="310">
@@ -8340,7 +8334,7 @@
         <v>10</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>263</v>
+        <v>60</v>
       </c>
     </row>
     <row r="311">
@@ -8363,7 +8357,7 @@
         <v>10</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>263</v>
+        <v>60</v>
       </c>
     </row>
     <row r="312">
@@ -8386,7 +8380,7 @@
         <v>10</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>263</v>
+        <v>60</v>
       </c>
     </row>
     <row r="313">
@@ -8409,7 +8403,7 @@
         <v>10</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>263</v>
+        <v>60</v>
       </c>
     </row>
     <row r="314">
@@ -8432,7 +8426,7 @@
         <v>10</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>263</v>
+        <v>60</v>
       </c>
     </row>
     <row r="315">
@@ -8455,7 +8449,7 @@
         <v>10</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>263</v>
+        <v>60</v>
       </c>
     </row>
     <row r="316">
@@ -8478,7 +8472,7 @@
         <v>10</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>263</v>
+        <v>60</v>
       </c>
     </row>
     <row r="317">
@@ -8501,7 +8495,7 @@
         <v>10</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>263</v>
+        <v>60</v>
       </c>
     </row>
     <row r="318">
@@ -8524,7 +8518,7 @@
         <v>10</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>263</v>
+        <v>60</v>
       </c>
     </row>
     <row r="319">
@@ -8547,7 +8541,7 @@
         <v>10</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>263</v>
+        <v>60</v>
       </c>
     </row>
     <row r="320">
@@ -8570,7 +8564,7 @@
         <v>10</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>263</v>
+        <v>60</v>
       </c>
     </row>
     <row r="321">
@@ -8593,7 +8587,7 @@
         <v>10</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>263</v>
+        <v>60</v>
       </c>
     </row>
     <row r="322">
@@ -8616,7 +8610,7 @@
         <v>10</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>263</v>
+        <v>60</v>
       </c>
     </row>
     <row r="323">
@@ -8639,7 +8633,7 @@
         <v>10</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>263</v>
+        <v>60</v>
       </c>
     </row>
     <row r="324">
@@ -8662,7 +8656,7 @@
         <v>10</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>263</v>
+        <v>60</v>
       </c>
     </row>
     <row r="325">
@@ -8685,7 +8679,7 @@
         <v>10</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>263</v>
+        <v>60</v>
       </c>
     </row>
     <row r="326">
@@ -8708,12 +8702,12 @@
         <v>10</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>263</v>
+        <v>60</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>100</v>
@@ -8722,7 +8716,7 @@
         <v>9</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E327" s="2" t="s">
         <v>106</v>
@@ -8731,12 +8725,12 @@
         <v>10</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>102</v>
@@ -8745,7 +8739,7 @@
         <v>33</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E328" s="2" t="s">
         <v>108</v>
@@ -8754,12 +8748,12 @@
         <v>10</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>109</v>
@@ -8768,7 +8762,7 @@
         <v>33</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E329" s="2" t="s">
         <v>110</v>
@@ -8777,12 +8771,12 @@
         <v>10</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>111</v>
@@ -8791,7 +8785,7 @@
         <v>33</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E330" s="2" t="s">
         <v>112</v>
@@ -8800,12 +8794,12 @@
         <v>10</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>113</v>
@@ -8814,7 +8808,7 @@
         <v>33</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E331" s="2" t="s">
         <v>114</v>
@@ -8823,12 +8817,12 @@
         <v>10</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>115</v>
@@ -8837,7 +8831,7 @@
         <v>33</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E332" s="2" t="s">
         <v>116</v>
@@ -8846,12 +8840,12 @@
         <v>10</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>117</v>
@@ -8860,7 +8854,7 @@
         <v>9</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E333" s="2" t="s">
         <v>118</v>
@@ -8869,12 +8863,12 @@
         <v>10</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>119</v>
@@ -8883,7 +8877,7 @@
         <v>9</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E334" s="2" t="s">
         <v>120</v>
@@ -8892,12 +8886,12 @@
         <v>10</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>121</v>
@@ -8906,7 +8900,7 @@
         <v>9</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E335" s="2" t="s">
         <v>122</v>
@@ -8915,12 +8909,12 @@
         <v>10</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>123</v>
@@ -8929,7 +8923,7 @@
         <v>9</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E336" s="2" t="s">
         <v>124</v>
@@ -8938,12 +8932,12 @@
         <v>10</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>125</v>
@@ -8952,7 +8946,7 @@
         <v>33</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E337" s="2" t="s">
         <v>126</v>
@@ -8961,12 +8955,12 @@
         <v>10</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>127</v>
@@ -8975,7 +8969,7 @@
         <v>33</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E338" s="2" t="s">
         <v>128</v>
@@ -8984,12 +8978,12 @@
         <v>10</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>129</v>
@@ -8998,7 +8992,7 @@
         <v>33</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E339" s="2" t="s">
         <v>130</v>
@@ -9007,12 +9001,12 @@
         <v>10</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>131</v>
@@ -9021,7 +9015,7 @@
         <v>33</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E340" s="2" t="s">
         <v>132</v>
@@ -9030,12 +9024,12 @@
         <v>10</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>133</v>
@@ -9044,7 +9038,7 @@
         <v>9</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E341" s="2" t="s">
         <v>134</v>
@@ -9053,12 +9047,12 @@
         <v>10</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>135</v>
@@ -9067,7 +9061,7 @@
         <v>9</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E342" s="2" t="s">
         <v>136</v>
@@ -9076,12 +9070,12 @@
         <v>10</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>137</v>
@@ -9090,7 +9084,7 @@
         <v>9</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E343" s="2" t="s">
         <v>138</v>
@@ -9099,12 +9093,12 @@
         <v>10</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>139</v>
@@ -9113,7 +9107,7 @@
         <v>9</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E344" s="2" t="s">
         <v>140</v>
@@ -9122,12 +9116,12 @@
         <v>10</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>141</v>
@@ -9136,7 +9130,7 @@
         <v>9</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E345" s="2" t="s">
         <v>142</v>
@@ -9145,12 +9139,12 @@
         <v>10</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>143</v>
@@ -9159,7 +9153,7 @@
         <v>33</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E346" s="2" t="s">
         <v>144</v>
@@ -9168,12 +9162,12 @@
         <v>10</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>145</v>
@@ -9182,7 +9176,7 @@
         <v>33</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E347" s="2" t="s">
         <v>146</v>
@@ -9191,12 +9185,12 @@
         <v>10</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>147</v>
@@ -9205,7 +9199,7 @@
         <v>33</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E348" s="2" t="s">
         <v>148</v>
@@ -9214,12 +9208,12 @@
         <v>10</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>100</v>
@@ -9228,7 +9222,7 @@
         <v>9</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E349" s="2" t="s">
         <v>106</v>
@@ -9237,12 +9231,12 @@
         <v>10</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>102</v>
@@ -9251,7 +9245,7 @@
         <v>33</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E350" s="2" t="s">
         <v>108</v>
@@ -9260,12 +9254,12 @@
         <v>10</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>109</v>
@@ -9274,7 +9268,7 @@
         <v>33</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E351" s="2" t="s">
         <v>110</v>
@@ -9283,12 +9277,12 @@
         <v>10</v>
       </c>
       <c r="G351" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>111</v>
@@ -9297,7 +9291,7 @@
         <v>33</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E352" s="2" t="s">
         <v>112</v>
@@ -9306,12 +9300,12 @@
         <v>10</v>
       </c>
       <c r="G352" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>113</v>
@@ -9320,7 +9314,7 @@
         <v>33</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E353" s="2" t="s">
         <v>114</v>
@@ -9329,12 +9323,12 @@
         <v>10</v>
       </c>
       <c r="G353" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>115</v>
@@ -9343,7 +9337,7 @@
         <v>33</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E354" s="2" t="s">
         <v>116</v>
@@ -9352,12 +9346,12 @@
         <v>10</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>117</v>
@@ -9366,7 +9360,7 @@
         <v>9</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E355" s="2" t="s">
         <v>118</v>
@@ -9375,12 +9369,12 @@
         <v>10</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>119</v>
@@ -9389,7 +9383,7 @@
         <v>9</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E356" s="2" t="s">
         <v>120</v>
@@ -9398,12 +9392,12 @@
         <v>10</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>121</v>
@@ -9412,7 +9406,7 @@
         <v>9</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E357" s="2" t="s">
         <v>122</v>
@@ -9421,12 +9415,12 @@
         <v>10</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>123</v>
@@ -9435,7 +9429,7 @@
         <v>9</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E358" s="2" t="s">
         <v>124</v>
@@ -9444,12 +9438,12 @@
         <v>10</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>125</v>
@@ -9458,7 +9452,7 @@
         <v>33</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E359" s="2" t="s">
         <v>126</v>
@@ -9467,12 +9461,12 @@
         <v>10</v>
       </c>
       <c r="G359" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>127</v>
@@ -9481,7 +9475,7 @@
         <v>33</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E360" s="2" t="s">
         <v>128</v>
@@ -9490,12 +9484,12 @@
         <v>10</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>129</v>
@@ -9504,7 +9498,7 @@
         <v>33</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E361" s="2" t="s">
         <v>130</v>
@@ -9513,12 +9507,12 @@
         <v>10</v>
       </c>
       <c r="G361" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>131</v>
@@ -9527,7 +9521,7 @@
         <v>33</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E362" s="2" t="s">
         <v>132</v>
@@ -9536,12 +9530,12 @@
         <v>10</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>133</v>
@@ -9550,7 +9544,7 @@
         <v>9</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E363" s="2" t="s">
         <v>134</v>
@@ -9559,12 +9553,12 @@
         <v>10</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>135</v>
@@ -9573,7 +9567,7 @@
         <v>9</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E364" s="2" t="s">
         <v>136</v>
@@ -9582,12 +9576,12 @@
         <v>10</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>137</v>
@@ -9596,7 +9590,7 @@
         <v>9</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E365" s="2" t="s">
         <v>138</v>
@@ -9605,12 +9599,12 @@
         <v>10</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>139</v>
@@ -9619,7 +9613,7 @@
         <v>9</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E366" s="2" t="s">
         <v>140</v>
@@ -9628,12 +9622,12 @@
         <v>10</v>
       </c>
       <c r="G366" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>141</v>
@@ -9642,7 +9636,7 @@
         <v>9</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E367" s="2" t="s">
         <v>142</v>
@@ -9651,12 +9645,12 @@
         <v>10</v>
       </c>
       <c r="G367" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>143</v>
@@ -9665,7 +9659,7 @@
         <v>33</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E368" s="2" t="s">
         <v>144</v>
@@ -9674,12 +9668,12 @@
         <v>10</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>145</v>
@@ -9688,7 +9682,7 @@
         <v>33</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E369" s="2" t="s">
         <v>146</v>
@@ -9697,12 +9691,12 @@
         <v>10</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>147</v>
@@ -9711,7 +9705,7 @@
         <v>33</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E370" s="2" t="s">
         <v>148</v>
@@ -9720,12 +9714,12 @@
         <v>10</v>
       </c>
       <c r="G370" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>202</v>
@@ -9734,7 +9728,7 @@
         <v>9</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E371" s="2" t="s">
         <v>204</v>
@@ -9743,12 +9737,12 @@
         <v>32</v>
       </c>
       <c r="G371" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>206</v>
@@ -9757,7 +9751,7 @@
         <v>9</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E372" s="2" t="s">
         <v>207</v>
@@ -9766,12 +9760,12 @@
         <v>10</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>208</v>
@@ -9780,7 +9774,7 @@
         <v>9</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E373" s="2" t="s">
         <v>209</v>
@@ -9789,12 +9783,12 @@
         <v>32</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>210</v>
@@ -9803,7 +9797,7 @@
         <v>9</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E374" s="2" t="s">
         <v>211</v>
@@ -9812,12 +9806,12 @@
         <v>10</v>
       </c>
       <c r="G374" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>212</v>
@@ -9826,7 +9820,7 @@
         <v>9</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E375" s="2" t="s">
         <v>213</v>
@@ -9835,12 +9829,12 @@
         <v>10</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>214</v>
@@ -9849,7 +9843,7 @@
         <v>9</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E376" s="2" t="s">
         <v>215</v>
@@ -9858,12 +9852,12 @@
         <v>10</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>216</v>
@@ -9872,7 +9866,7 @@
         <v>9</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E377" s="2" t="s">
         <v>217</v>
@@ -9881,35 +9875,35 @@
         <v>10</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B378" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D378" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E378" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="C378" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D378" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E378" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="F378" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>100</v>
@@ -9918,7 +9912,7 @@
         <v>9</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E379" s="2" t="s">
         <v>106</v>
@@ -9927,12 +9921,12 @@
         <v>10</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>102</v>
@@ -9941,7 +9935,7 @@
         <v>33</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E380" s="2" t="s">
         <v>108</v>
@@ -9950,12 +9944,12 @@
         <v>10</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>109</v>
@@ -9964,7 +9958,7 @@
         <v>33</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E381" s="2" t="s">
         <v>110</v>
@@ -9973,12 +9967,12 @@
         <v>10</v>
       </c>
       <c r="G381" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>111</v>
@@ -9987,7 +9981,7 @@
         <v>33</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E382" s="2" t="s">
         <v>112</v>
@@ -9996,12 +9990,12 @@
         <v>10</v>
       </c>
       <c r="G382" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>113</v>
@@ -10010,7 +10004,7 @@
         <v>33</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E383" s="2" t="s">
         <v>114</v>
@@ -10019,12 +10013,12 @@
         <v>10</v>
       </c>
       <c r="G383" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>115</v>
@@ -10033,7 +10027,7 @@
         <v>33</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E384" s="2" t="s">
         <v>116</v>
@@ -10042,12 +10036,12 @@
         <v>10</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>117</v>
@@ -10056,7 +10050,7 @@
         <v>9</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E385" s="2" t="s">
         <v>118</v>
@@ -10065,12 +10059,12 @@
         <v>10</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>119</v>
@@ -10079,7 +10073,7 @@
         <v>9</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E386" s="2" t="s">
         <v>120</v>
@@ -10088,12 +10082,12 @@
         <v>10</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>121</v>
@@ -10102,7 +10096,7 @@
         <v>9</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E387" s="2" t="s">
         <v>122</v>
@@ -10111,12 +10105,12 @@
         <v>10</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>123</v>
@@ -10125,7 +10119,7 @@
         <v>9</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E388" s="2" t="s">
         <v>124</v>
@@ -10134,12 +10128,12 @@
         <v>10</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>125</v>
@@ -10148,7 +10142,7 @@
         <v>33</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E389" s="2" t="s">
         <v>126</v>
@@ -10157,12 +10151,12 @@
         <v>10</v>
       </c>
       <c r="G389" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>127</v>
@@ -10171,7 +10165,7 @@
         <v>33</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E390" s="2" t="s">
         <v>128</v>
@@ -10180,12 +10174,12 @@
         <v>10</v>
       </c>
       <c r="G390" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>129</v>
@@ -10194,7 +10188,7 @@
         <v>33</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E391" s="2" t="s">
         <v>130</v>
@@ -10203,12 +10197,12 @@
         <v>10</v>
       </c>
       <c r="G391" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>131</v>
@@ -10217,7 +10211,7 @@
         <v>33</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E392" s="2" t="s">
         <v>132</v>
@@ -10226,12 +10220,12 @@
         <v>10</v>
       </c>
       <c r="G392" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>133</v>
@@ -10240,7 +10234,7 @@
         <v>9</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E393" s="2" t="s">
         <v>134</v>
@@ -10249,12 +10243,12 @@
         <v>10</v>
       </c>
       <c r="G393" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>135</v>
@@ -10263,7 +10257,7 @@
         <v>9</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E394" s="2" t="s">
         <v>136</v>
@@ -10272,12 +10266,12 @@
         <v>10</v>
       </c>
       <c r="G394" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>137</v>
@@ -10286,7 +10280,7 @@
         <v>9</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E395" s="2" t="s">
         <v>138</v>
@@ -10295,12 +10289,12 @@
         <v>10</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>139</v>
@@ -10309,7 +10303,7 @@
         <v>9</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E396" s="2" t="s">
         <v>140</v>
@@ -10318,12 +10312,12 @@
         <v>10</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>141</v>
@@ -10332,7 +10326,7 @@
         <v>9</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E397" s="2" t="s">
         <v>142</v>
@@ -10341,12 +10335,12 @@
         <v>10</v>
       </c>
       <c r="G397" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>143</v>
@@ -10355,7 +10349,7 @@
         <v>33</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E398" s="2" t="s">
         <v>144</v>
@@ -10364,12 +10358,12 @@
         <v>10</v>
       </c>
       <c r="G398" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>145</v>
@@ -10378,7 +10372,7 @@
         <v>33</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E399" s="2" t="s">
         <v>146</v>
@@ -10387,12 +10381,12 @@
         <v>10</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>147</v>
@@ -10401,7 +10395,7 @@
         <v>33</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E400" s="2" t="s">
         <v>148</v>
@@ -10410,12 +10404,12 @@
         <v>10</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>202</v>
@@ -10424,7 +10418,7 @@
         <v>9</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E401" s="2" t="s">
         <v>204</v>
@@ -10433,12 +10427,12 @@
         <v>32</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>206</v>
@@ -10447,7 +10441,7 @@
         <v>9</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E402" s="2" t="s">
         <v>207</v>
@@ -10456,12 +10450,12 @@
         <v>10</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>208</v>
@@ -10470,7 +10464,7 @@
         <v>9</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E403" s="2" t="s">
         <v>209</v>
@@ -10479,12 +10473,12 @@
         <v>32</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>210</v>
@@ -10493,7 +10487,7 @@
         <v>9</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E404" s="2" t="s">
         <v>211</v>
@@ -10502,12 +10496,12 @@
         <v>10</v>
       </c>
       <c r="G404" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>212</v>
@@ -10516,7 +10510,7 @@
         <v>9</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E405" s="2" t="s">
         <v>213</v>
@@ -10525,12 +10519,12 @@
         <v>10</v>
       </c>
       <c r="G405" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>214</v>
@@ -10539,7 +10533,7 @@
         <v>9</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E406" s="2" t="s">
         <v>215</v>
@@ -10548,12 +10542,12 @@
         <v>10</v>
       </c>
       <c r="G406" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>216</v>
@@ -10562,7 +10556,7 @@
         <v>9</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E407" s="2" t="s">
         <v>217</v>
@@ -10571,35 +10565,35 @@
         <v>10</v>
       </c>
       <c r="G407" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B408" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D408" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E408" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="C408" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D408" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E408" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="F408" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G408" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>100</v>
@@ -10617,12 +10611,12 @@
         <v>10</v>
       </c>
       <c r="G409" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>102</v>
@@ -10640,12 +10634,12 @@
         <v>10</v>
       </c>
       <c r="G410" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>109</v>
@@ -10663,12 +10657,12 @@
         <v>10</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>111</v>
@@ -10686,12 +10680,12 @@
         <v>10</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>113</v>
@@ -10709,12 +10703,12 @@
         <v>10</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>115</v>
@@ -10732,12 +10726,12 @@
         <v>10</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>117</v>
@@ -10755,12 +10749,12 @@
         <v>10</v>
       </c>
       <c r="G415" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>119</v>
@@ -10778,12 +10772,12 @@
         <v>10</v>
       </c>
       <c r="G416" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>121</v>
@@ -10801,12 +10795,12 @@
         <v>10</v>
       </c>
       <c r="G417" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>123</v>
@@ -10824,12 +10818,12 @@
         <v>10</v>
       </c>
       <c r="G418" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>125</v>
@@ -10847,12 +10841,12 @@
         <v>10</v>
       </c>
       <c r="G419" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>127</v>
@@ -10870,12 +10864,12 @@
         <v>10</v>
       </c>
       <c r="G420" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>129</v>
@@ -10893,12 +10887,12 @@
         <v>10</v>
       </c>
       <c r="G421" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>131</v>
@@ -10916,12 +10910,12 @@
         <v>10</v>
       </c>
       <c r="G422" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>133</v>
@@ -10939,12 +10933,12 @@
         <v>10</v>
       </c>
       <c r="G423" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>135</v>
@@ -10962,12 +10956,12 @@
         <v>10</v>
       </c>
       <c r="G424" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>137</v>
@@ -10985,12 +10979,12 @@
         <v>10</v>
       </c>
       <c r="G425" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>139</v>
@@ -11008,12 +11002,12 @@
         <v>10</v>
       </c>
       <c r="G426" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>141</v>
@@ -11031,12 +11025,12 @@
         <v>10</v>
       </c>
       <c r="G427" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>143</v>
@@ -11054,12 +11048,12 @@
         <v>10</v>
       </c>
       <c r="G428" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>145</v>
@@ -11077,12 +11071,12 @@
         <v>10</v>
       </c>
       <c r="G429" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>147</v>
@@ -11100,12 +11094,12 @@
         <v>10</v>
       </c>
       <c r="G430" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>100</v>
@@ -11123,12 +11117,12 @@
         <v>10</v>
       </c>
       <c r="G431" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>102</v>
@@ -11146,12 +11140,12 @@
         <v>10</v>
       </c>
       <c r="G432" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>109</v>
@@ -11169,12 +11163,12 @@
         <v>10</v>
       </c>
       <c r="G433" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>111</v>
@@ -11192,12 +11186,12 @@
         <v>10</v>
       </c>
       <c r="G434" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>113</v>
@@ -11215,12 +11209,12 @@
         <v>10</v>
       </c>
       <c r="G435" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>115</v>
@@ -11238,12 +11232,12 @@
         <v>10</v>
       </c>
       <c r="G436" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>117</v>
@@ -11261,12 +11255,12 @@
         <v>10</v>
       </c>
       <c r="G437" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>119</v>
@@ -11284,12 +11278,12 @@
         <v>10</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>121</v>
@@ -11307,12 +11301,12 @@
         <v>10</v>
       </c>
       <c r="G439" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>123</v>
@@ -11330,12 +11324,12 @@
         <v>10</v>
       </c>
       <c r="G440" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>125</v>
@@ -11353,12 +11347,12 @@
         <v>10</v>
       </c>
       <c r="G441" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>127</v>
@@ -11376,12 +11370,12 @@
         <v>10</v>
       </c>
       <c r="G442" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>129</v>
@@ -11399,12 +11393,12 @@
         <v>10</v>
       </c>
       <c r="G443" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>131</v>
@@ -11422,12 +11416,12 @@
         <v>10</v>
       </c>
       <c r="G444" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>133</v>
@@ -11445,12 +11439,12 @@
         <v>10</v>
       </c>
       <c r="G445" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>135</v>
@@ -11468,12 +11462,12 @@
         <v>10</v>
       </c>
       <c r="G446" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>137</v>
@@ -11491,12 +11485,12 @@
         <v>10</v>
       </c>
       <c r="G447" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>139</v>
@@ -11514,12 +11508,12 @@
         <v>10</v>
       </c>
       <c r="G448" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>141</v>
@@ -11537,12 +11531,12 @@
         <v>10</v>
       </c>
       <c r="G449" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>143</v>
@@ -11560,12 +11554,12 @@
         <v>10</v>
       </c>
       <c r="G450" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>145</v>
@@ -11583,12 +11577,12 @@
         <v>10</v>
       </c>
       <c r="G451" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>147</v>
@@ -11606,12 +11600,12 @@
         <v>10</v>
       </c>
       <c r="G452" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>100</v>
@@ -11620,21 +11614,21 @@
         <v>9</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E453" s="2" t="s">
         <v>106</v>
       </c>
       <c r="F453" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G453" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>102</v>
@@ -11643,7 +11637,7 @@
         <v>33</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E454" s="2" t="s">
         <v>108</v>
@@ -11652,12 +11646,12 @@
         <v>10</v>
       </c>
       <c r="G454" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>109</v>
@@ -11666,7 +11660,7 @@
         <v>33</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E455" s="2" t="s">
         <v>110</v>
@@ -11675,12 +11669,12 @@
         <v>10</v>
       </c>
       <c r="G455" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>111</v>
@@ -11689,7 +11683,7 @@
         <v>33</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E456" s="2" t="s">
         <v>112</v>
@@ -11698,12 +11692,12 @@
         <v>10</v>
       </c>
       <c r="G456" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>113</v>
@@ -11712,7 +11706,7 @@
         <v>33</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E457" s="2" t="s">
         <v>114</v>
@@ -11721,12 +11715,12 @@
         <v>10</v>
       </c>
       <c r="G457" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>115</v>
@@ -11735,7 +11729,7 @@
         <v>33</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E458" s="2" t="s">
         <v>116</v>
@@ -11744,12 +11738,12 @@
         <v>10</v>
       </c>
       <c r="G458" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>117</v>
@@ -11758,7 +11752,7 @@
         <v>9</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E459" s="2" t="s">
         <v>118</v>
@@ -11767,12 +11761,12 @@
         <v>10</v>
       </c>
       <c r="G459" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>119</v>
@@ -11781,7 +11775,7 @@
         <v>9</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E460" s="2" t="s">
         <v>120</v>
@@ -11790,12 +11784,12 @@
         <v>10</v>
       </c>
       <c r="G460" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>121</v>
@@ -11804,7 +11798,7 @@
         <v>9</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E461" s="2" t="s">
         <v>122</v>
@@ -11813,12 +11807,12 @@
         <v>10</v>
       </c>
       <c r="G461" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>123</v>
@@ -11827,7 +11821,7 @@
         <v>9</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E462" s="2" t="s">
         <v>124</v>
@@ -11836,12 +11830,12 @@
         <v>10</v>
       </c>
       <c r="G462" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>125</v>
@@ -11850,7 +11844,7 @@
         <v>33</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E463" s="2" t="s">
         <v>126</v>
@@ -11859,12 +11853,12 @@
         <v>10</v>
       </c>
       <c r="G463" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>127</v>
@@ -11873,7 +11867,7 @@
         <v>33</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E464" s="2" t="s">
         <v>128</v>
@@ -11882,12 +11876,12 @@
         <v>10</v>
       </c>
       <c r="G464" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>129</v>
@@ -11896,7 +11890,7 @@
         <v>33</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E465" s="2" t="s">
         <v>130</v>
@@ -11905,12 +11899,12 @@
         <v>10</v>
       </c>
       <c r="G465" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>131</v>
@@ -11919,7 +11913,7 @@
         <v>33</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E466" s="2" t="s">
         <v>132</v>
@@ -11928,12 +11922,12 @@
         <v>10</v>
       </c>
       <c r="G466" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>133</v>
@@ -11942,7 +11936,7 @@
         <v>9</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E467" s="2" t="s">
         <v>134</v>
@@ -11951,12 +11945,12 @@
         <v>10</v>
       </c>
       <c r="G467" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>135</v>
@@ -11965,7 +11959,7 @@
         <v>9</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E468" s="2" t="s">
         <v>136</v>
@@ -11974,12 +11968,12 @@
         <v>10</v>
       </c>
       <c r="G468" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>137</v>
@@ -11988,7 +11982,7 @@
         <v>9</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E469" s="2" t="s">
         <v>138</v>
@@ -11997,12 +11991,12 @@
         <v>10</v>
       </c>
       <c r="G469" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B470" s="2" t="s">
         <v>139</v>
@@ -12011,7 +12005,7 @@
         <v>9</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E470" s="2" t="s">
         <v>140</v>
@@ -12020,12 +12014,12 @@
         <v>10</v>
       </c>
       <c r="G470" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B471" s="2" t="s">
         <v>141</v>
@@ -12034,7 +12028,7 @@
         <v>9</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E471" s="2" t="s">
         <v>142</v>
@@ -12043,12 +12037,12 @@
         <v>10</v>
       </c>
       <c r="G471" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>143</v>
@@ -12057,7 +12051,7 @@
         <v>33</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E472" s="2" t="s">
         <v>144</v>
@@ -12066,12 +12060,12 @@
         <v>10</v>
       </c>
       <c r="G472" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B473" s="2" t="s">
         <v>145</v>
@@ -12080,7 +12074,7 @@
         <v>33</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E473" s="2" t="s">
         <v>146</v>
@@ -12089,12 +12083,12 @@
         <v>10</v>
       </c>
       <c r="G473" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>147</v>
@@ -12103,7 +12097,7 @@
         <v>33</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E474" s="2" t="s">
         <v>148</v>
@@ -12112,58 +12106,58 @@
         <v>10</v>
       </c>
       <c r="G474" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B475" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D475" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E475" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C475" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D475" s="2" t="s">
+      <c r="F475" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G475" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="E475" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="F475" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G475" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C476" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D476" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E476" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F476" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G476" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="E476" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F476" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G476" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B477" s="2" t="s">
         <v>100</v>
@@ -12172,21 +12166,21 @@
         <v>9</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E477" s="2" t="s">
         <v>106</v>
       </c>
       <c r="F477" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G477" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B478" s="2" t="s">
         <v>102</v>
@@ -12195,7 +12189,7 @@
         <v>33</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E478" s="2" t="s">
         <v>108</v>
@@ -12204,12 +12198,12 @@
         <v>10</v>
       </c>
       <c r="G478" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B479" s="2" t="s">
         <v>109</v>
@@ -12218,7 +12212,7 @@
         <v>33</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E479" s="2" t="s">
         <v>110</v>
@@ -12227,12 +12221,12 @@
         <v>10</v>
       </c>
       <c r="G479" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B480" s="2" t="s">
         <v>111</v>
@@ -12241,7 +12235,7 @@
         <v>33</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E480" s="2" t="s">
         <v>112</v>
@@ -12250,12 +12244,12 @@
         <v>10</v>
       </c>
       <c r="G480" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B481" s="2" t="s">
         <v>113</v>
@@ -12264,7 +12258,7 @@
         <v>33</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E481" s="2" t="s">
         <v>114</v>
@@ -12273,12 +12267,12 @@
         <v>10</v>
       </c>
       <c r="G481" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B482" s="2" t="s">
         <v>115</v>
@@ -12287,7 +12281,7 @@
         <v>33</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E482" s="2" t="s">
         <v>116</v>
@@ -12296,12 +12290,12 @@
         <v>10</v>
       </c>
       <c r="G482" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B483" s="2" t="s">
         <v>117</v>
@@ -12310,7 +12304,7 @@
         <v>9</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E483" s="2" t="s">
         <v>118</v>
@@ -12319,12 +12313,12 @@
         <v>10</v>
       </c>
       <c r="G483" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B484" s="2" t="s">
         <v>119</v>
@@ -12333,7 +12327,7 @@
         <v>9</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E484" s="2" t="s">
         <v>120</v>
@@ -12342,12 +12336,12 @@
         <v>10</v>
       </c>
       <c r="G484" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>121</v>
@@ -12356,7 +12350,7 @@
         <v>9</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E485" s="2" t="s">
         <v>122</v>
@@ -12365,12 +12359,12 @@
         <v>10</v>
       </c>
       <c r="G485" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B486" s="2" t="s">
         <v>123</v>
@@ -12379,7 +12373,7 @@
         <v>9</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E486" s="2" t="s">
         <v>124</v>
@@ -12388,12 +12382,12 @@
         <v>10</v>
       </c>
       <c r="G486" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B487" s="2" t="s">
         <v>125</v>
@@ -12402,7 +12396,7 @@
         <v>33</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E487" s="2" t="s">
         <v>126</v>
@@ -12411,12 +12405,12 @@
         <v>10</v>
       </c>
       <c r="G487" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B488" s="2" t="s">
         <v>127</v>
@@ -12425,7 +12419,7 @@
         <v>33</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E488" s="2" t="s">
         <v>128</v>
@@ -12434,12 +12428,12 @@
         <v>10</v>
       </c>
       <c r="G488" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B489" s="2" t="s">
         <v>129</v>
@@ -12448,7 +12442,7 @@
         <v>33</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E489" s="2" t="s">
         <v>130</v>
@@ -12457,12 +12451,12 @@
         <v>10</v>
       </c>
       <c r="G489" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B490" s="2" t="s">
         <v>131</v>
@@ -12471,7 +12465,7 @@
         <v>33</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E490" s="2" t="s">
         <v>132</v>
@@ -12480,12 +12474,12 @@
         <v>10</v>
       </c>
       <c r="G490" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B491" s="2" t="s">
         <v>133</v>
@@ -12494,7 +12488,7 @@
         <v>9</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E491" s="2" t="s">
         <v>134</v>
@@ -12503,12 +12497,12 @@
         <v>10</v>
       </c>
       <c r="G491" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B492" s="2" t="s">
         <v>135</v>
@@ -12517,7 +12511,7 @@
         <v>9</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E492" s="2" t="s">
         <v>136</v>
@@ -12526,12 +12520,12 @@
         <v>10</v>
       </c>
       <c r="G492" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B493" s="2" t="s">
         <v>137</v>
@@ -12540,7 +12534,7 @@
         <v>9</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E493" s="2" t="s">
         <v>138</v>
@@ -12549,12 +12543,12 @@
         <v>10</v>
       </c>
       <c r="G493" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B494" s="2" t="s">
         <v>139</v>
@@ -12563,7 +12557,7 @@
         <v>9</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E494" s="2" t="s">
         <v>140</v>
@@ -12572,12 +12566,12 @@
         <v>10</v>
       </c>
       <c r="G494" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>141</v>
@@ -12586,7 +12580,7 @@
         <v>9</v>
       </c>
       <c r="D495" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E495" s="2" t="s">
         <v>142</v>
@@ -12595,12 +12589,12 @@
         <v>10</v>
       </c>
       <c r="G495" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B496" s="2" t="s">
         <v>143</v>
@@ -12609,7 +12603,7 @@
         <v>33</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E496" s="2" t="s">
         <v>144</v>
@@ -12618,12 +12612,12 @@
         <v>10</v>
       </c>
       <c r="G496" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B497" s="2" t="s">
         <v>145</v>
@@ -12632,7 +12626,7 @@
         <v>33</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E497" s="2" t="s">
         <v>146</v>
@@ -12641,12 +12635,12 @@
         <v>10</v>
       </c>
       <c r="G497" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B498" s="2" t="s">
         <v>147</v>
@@ -12655,7 +12649,7 @@
         <v>33</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E498" s="2" t="s">
         <v>148</v>
@@ -12664,12 +12658,12 @@
         <v>10</v>
       </c>
       <c r="G498" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B499" s="2" t="s">
         <v>202</v>
@@ -12678,7 +12672,7 @@
         <v>9</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E499" s="2" t="s">
         <v>204</v>
@@ -12687,12 +12681,12 @@
         <v>40</v>
       </c>
       <c r="G499" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B500" s="2" t="s">
         <v>206</v>
@@ -12701,7 +12695,7 @@
         <v>9</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E500" s="2" t="s">
         <v>207</v>
@@ -12710,12 +12704,12 @@
         <v>40</v>
       </c>
       <c r="G500" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B501" s="2" t="s">
         <v>208</v>
@@ -12724,7 +12718,7 @@
         <v>9</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E501" s="2" t="s">
         <v>209</v>
@@ -12733,12 +12727,12 @@
         <v>40</v>
       </c>
       <c r="G501" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B502" s="2" t="s">
         <v>210</v>
@@ -12747,7 +12741,7 @@
         <v>9</v>
       </c>
       <c r="D502" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E502" s="2" t="s">
         <v>211</v>
@@ -12756,12 +12750,12 @@
         <v>10</v>
       </c>
       <c r="G502" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B503" s="2" t="s">
         <v>212</v>
@@ -12770,7 +12764,7 @@
         <v>9</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E503" s="2" t="s">
         <v>213</v>
@@ -12779,12 +12773,12 @@
         <v>40</v>
       </c>
       <c r="G503" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B504" s="2" t="s">
         <v>214</v>
@@ -12793,7 +12787,7 @@
         <v>9</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E504" s="2" t="s">
         <v>215</v>
@@ -12802,12 +12796,12 @@
         <v>10</v>
       </c>
       <c r="G504" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B505" s="2" t="s">
         <v>216</v>
@@ -12816,7 +12810,7 @@
         <v>9</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E505" s="2" t="s">
         <v>217</v>
@@ -12825,12 +12819,12 @@
         <v>40</v>
       </c>
       <c r="G505" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B506" s="2" t="s">
         <v>178</v>
@@ -12839,7 +12833,7 @@
         <v>9</v>
       </c>
       <c r="D506" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E506" s="2" t="s">
         <v>180</v>
@@ -12853,7 +12847,7 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B507" s="2" t="s">
         <v>181</v>
@@ -12862,7 +12856,7 @@
         <v>33</v>
       </c>
       <c r="D507" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E507" s="2" t="s">
         <v>182</v>
@@ -12876,7 +12870,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B508" s="2" t="s">
         <v>183</v>
@@ -12885,7 +12879,7 @@
         <v>33</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E508" s="2" t="s">
         <v>184</v>
@@ -12899,7 +12893,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B509" s="2" t="s">
         <v>185</v>
@@ -12908,7 +12902,7 @@
         <v>33</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E509" s="2" t="s">
         <v>186</v>
@@ -12922,7 +12916,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B510" s="2" t="s">
         <v>187</v>
@@ -12931,7 +12925,7 @@
         <v>33</v>
       </c>
       <c r="D510" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E510" s="2" t="s">
         <v>188</v>
@@ -12945,7 +12939,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B511" s="2" t="s">
         <v>189</v>
@@ -12954,7 +12948,7 @@
         <v>33</v>
       </c>
       <c r="D511" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E511" s="2" t="s">
         <v>190</v>
@@ -12968,7 +12962,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B512" s="2" t="s">
         <v>191</v>
@@ -12977,7 +12971,7 @@
         <v>33</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E512" s="2" t="s">
         <v>59</v>
@@ -12991,7 +12985,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B513" s="2" t="s">
         <v>192</v>
@@ -13000,7 +12994,7 @@
         <v>33</v>
       </c>
       <c r="D513" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E513" s="2" t="s">
         <v>193</v>
@@ -13014,7 +13008,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B514" s="2" t="s">
         <v>194</v>
@@ -13023,7 +13017,7 @@
         <v>33</v>
       </c>
       <c r="D514" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E514" s="2" t="s">
         <v>62</v>
@@ -13037,7 +13031,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B515" s="2" t="s">
         <v>195</v>
@@ -13046,7 +13040,7 @@
         <v>33</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E515" s="2" t="s">
         <v>196</v>
@@ -13060,7 +13054,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B516" s="2" t="s">
         <v>197</v>
@@ -13069,7 +13063,7 @@
         <v>9</v>
       </c>
       <c r="D516" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E516" s="2" t="s">
         <v>198</v>
@@ -13083,7 +13077,7 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B517" s="2" t="s">
         <v>199</v>
@@ -13092,7 +13086,7 @@
         <v>9</v>
       </c>
       <c r="D517" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E517" s="2" t="s">
         <v>200</v>
@@ -13106,7 +13100,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B518" s="2" t="s">
         <v>68</v>
@@ -13115,7 +13109,7 @@
         <v>33</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E518" s="2" t="s">
         <v>69</v>
@@ -13129,7 +13123,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B519" s="2" t="s">
         <v>100</v>
@@ -13138,7 +13132,7 @@
         <v>9</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E519" s="2" t="s">
         <v>106</v>
@@ -13147,12 +13141,12 @@
         <v>10</v>
       </c>
       <c r="G519" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B520" s="2" t="s">
         <v>102</v>
@@ -13161,7 +13155,7 @@
         <v>33</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E520" s="2" t="s">
         <v>108</v>
@@ -13170,12 +13164,12 @@
         <v>10</v>
       </c>
       <c r="G520" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B521" s="2" t="s">
         <v>109</v>
@@ -13184,7 +13178,7 @@
         <v>33</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E521" s="2" t="s">
         <v>110</v>
@@ -13193,12 +13187,12 @@
         <v>10</v>
       </c>
       <c r="G521" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B522" s="2" t="s">
         <v>111</v>
@@ -13207,7 +13201,7 @@
         <v>33</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E522" s="2" t="s">
         <v>112</v>
@@ -13216,12 +13210,12 @@
         <v>10</v>
       </c>
       <c r="G522" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B523" s="2" t="s">
         <v>113</v>
@@ -13230,7 +13224,7 @@
         <v>33</v>
       </c>
       <c r="D523" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E523" s="2" t="s">
         <v>114</v>
@@ -13239,12 +13233,12 @@
         <v>10</v>
       </c>
       <c r="G523" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B524" s="2" t="s">
         <v>115</v>
@@ -13253,7 +13247,7 @@
         <v>33</v>
       </c>
       <c r="D524" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E524" s="2" t="s">
         <v>116</v>
@@ -13262,12 +13256,12 @@
         <v>10</v>
       </c>
       <c r="G524" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B525" s="2" t="s">
         <v>117</v>
@@ -13276,7 +13270,7 @@
         <v>9</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E525" s="2" t="s">
         <v>118</v>
@@ -13285,12 +13279,12 @@
         <v>10</v>
       </c>
       <c r="G525" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B526" s="2" t="s">
         <v>119</v>
@@ -13299,7 +13293,7 @@
         <v>9</v>
       </c>
       <c r="D526" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E526" s="2" t="s">
         <v>120</v>
@@ -13308,12 +13302,12 @@
         <v>10</v>
       </c>
       <c r="G526" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B527" s="2" t="s">
         <v>121</v>
@@ -13322,7 +13316,7 @@
         <v>9</v>
       </c>
       <c r="D527" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E527" s="2" t="s">
         <v>122</v>
@@ -13331,12 +13325,12 @@
         <v>10</v>
       </c>
       <c r="G527" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B528" s="2" t="s">
         <v>123</v>
@@ -13345,7 +13339,7 @@
         <v>9</v>
       </c>
       <c r="D528" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E528" s="2" t="s">
         <v>124</v>
@@ -13354,12 +13348,12 @@
         <v>10</v>
       </c>
       <c r="G528" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B529" s="2" t="s">
         <v>125</v>
@@ -13368,7 +13362,7 @@
         <v>33</v>
       </c>
       <c r="D529" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E529" s="2" t="s">
         <v>126</v>
@@ -13377,12 +13371,12 @@
         <v>10</v>
       </c>
       <c r="G529" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B530" s="2" t="s">
         <v>127</v>
@@ -13391,7 +13385,7 @@
         <v>33</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E530" s="2" t="s">
         <v>128</v>
@@ -13400,12 +13394,12 @@
         <v>10</v>
       </c>
       <c r="G530" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B531" s="2" t="s">
         <v>129</v>
@@ -13414,7 +13408,7 @@
         <v>33</v>
       </c>
       <c r="D531" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E531" s="2" t="s">
         <v>130</v>
@@ -13423,12 +13417,12 @@
         <v>10</v>
       </c>
       <c r="G531" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B532" s="2" t="s">
         <v>131</v>
@@ -13437,7 +13431,7 @@
         <v>33</v>
       </c>
       <c r="D532" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E532" s="2" t="s">
         <v>132</v>
@@ -13446,12 +13440,12 @@
         <v>10</v>
       </c>
       <c r="G532" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B533" s="2" t="s">
         <v>133</v>
@@ -13460,7 +13454,7 @@
         <v>9</v>
       </c>
       <c r="D533" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E533" s="2" t="s">
         <v>134</v>
@@ -13469,12 +13463,12 @@
         <v>10</v>
       </c>
       <c r="G533" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B534" s="2" t="s">
         <v>135</v>
@@ -13483,7 +13477,7 @@
         <v>9</v>
       </c>
       <c r="D534" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E534" s="2" t="s">
         <v>136</v>
@@ -13492,12 +13486,12 @@
         <v>10</v>
       </c>
       <c r="G534" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B535" s="2" t="s">
         <v>137</v>
@@ -13506,7 +13500,7 @@
         <v>9</v>
       </c>
       <c r="D535" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E535" s="2" t="s">
         <v>138</v>
@@ -13515,12 +13509,12 @@
         <v>10</v>
       </c>
       <c r="G535" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B536" s="2" t="s">
         <v>139</v>
@@ -13529,7 +13523,7 @@
         <v>9</v>
       </c>
       <c r="D536" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E536" s="2" t="s">
         <v>140</v>
@@ -13538,12 +13532,12 @@
         <v>10</v>
       </c>
       <c r="G536" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B537" s="2" t="s">
         <v>141</v>
@@ -13552,7 +13546,7 @@
         <v>9</v>
       </c>
       <c r="D537" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E537" s="2" t="s">
         <v>142</v>
@@ -13561,12 +13555,12 @@
         <v>10</v>
       </c>
       <c r="G537" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B538" s="2" t="s">
         <v>143</v>
@@ -13575,7 +13569,7 @@
         <v>33</v>
       </c>
       <c r="D538" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E538" s="2" t="s">
         <v>144</v>
@@ -13584,12 +13578,12 @@
         <v>10</v>
       </c>
       <c r="G538" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B539" s="2" t="s">
         <v>145</v>
@@ -13598,7 +13592,7 @@
         <v>33</v>
       </c>
       <c r="D539" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E539" s="2" t="s">
         <v>146</v>
@@ -13607,12 +13601,12 @@
         <v>10</v>
       </c>
       <c r="G539" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B540" s="2" t="s">
         <v>147</v>
@@ -13621,7 +13615,7 @@
         <v>33</v>
       </c>
       <c r="D540" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E540" s="2" t="s">
         <v>148</v>
@@ -13630,12 +13624,12 @@
         <v>10</v>
       </c>
       <c r="G540" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B541" s="2" t="s">
         <v>100</v>
@@ -13644,7 +13638,7 @@
         <v>9</v>
       </c>
       <c r="D541" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E541" s="2" t="s">
         <v>106</v>
@@ -13653,12 +13647,12 @@
         <v>10</v>
       </c>
       <c r="G541" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B542" s="2" t="s">
         <v>102</v>
@@ -13667,7 +13661,7 @@
         <v>33</v>
       </c>
       <c r="D542" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E542" s="2" t="s">
         <v>108</v>
@@ -13676,12 +13670,12 @@
         <v>10</v>
       </c>
       <c r="G542" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B543" s="2" t="s">
         <v>109</v>
@@ -13690,7 +13684,7 @@
         <v>33</v>
       </c>
       <c r="D543" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E543" s="2" t="s">
         <v>110</v>
@@ -13699,12 +13693,12 @@
         <v>10</v>
       </c>
       <c r="G543" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B544" s="2" t="s">
         <v>111</v>
@@ -13713,7 +13707,7 @@
         <v>33</v>
       </c>
       <c r="D544" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E544" s="2" t="s">
         <v>112</v>
@@ -13722,12 +13716,12 @@
         <v>10</v>
       </c>
       <c r="G544" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B545" s="2" t="s">
         <v>113</v>
@@ -13736,7 +13730,7 @@
         <v>33</v>
       </c>
       <c r="D545" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E545" s="2" t="s">
         <v>114</v>
@@ -13745,12 +13739,12 @@
         <v>10</v>
       </c>
       <c r="G545" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B546" s="2" t="s">
         <v>115</v>
@@ -13759,7 +13753,7 @@
         <v>33</v>
       </c>
       <c r="D546" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E546" s="2" t="s">
         <v>116</v>
@@ -13768,12 +13762,12 @@
         <v>10</v>
       </c>
       <c r="G546" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B547" s="2" t="s">
         <v>117</v>
@@ -13782,7 +13776,7 @@
         <v>9</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E547" s="2" t="s">
         <v>118</v>
@@ -13791,12 +13785,12 @@
         <v>10</v>
       </c>
       <c r="G547" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B548" s="2" t="s">
         <v>119</v>
@@ -13805,7 +13799,7 @@
         <v>9</v>
       </c>
       <c r="D548" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E548" s="2" t="s">
         <v>120</v>
@@ -13814,12 +13808,12 @@
         <v>10</v>
       </c>
       <c r="G548" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B549" s="2" t="s">
         <v>121</v>
@@ -13828,7 +13822,7 @@
         <v>9</v>
       </c>
       <c r="D549" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E549" s="2" t="s">
         <v>122</v>
@@ -13837,12 +13831,12 @@
         <v>10</v>
       </c>
       <c r="G549" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B550" s="2" t="s">
         <v>123</v>
@@ -13851,7 +13845,7 @@
         <v>9</v>
       </c>
       <c r="D550" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E550" s="2" t="s">
         <v>124</v>
@@ -13860,12 +13854,12 @@
         <v>10</v>
       </c>
       <c r="G550" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B551" s="2" t="s">
         <v>125</v>
@@ -13874,7 +13868,7 @@
         <v>33</v>
       </c>
       <c r="D551" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E551" s="2" t="s">
         <v>126</v>
@@ -13883,12 +13877,12 @@
         <v>10</v>
       </c>
       <c r="G551" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B552" s="2" t="s">
         <v>127</v>
@@ -13897,7 +13891,7 @@
         <v>33</v>
       </c>
       <c r="D552" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E552" s="2" t="s">
         <v>128</v>
@@ -13906,12 +13900,12 @@
         <v>10</v>
       </c>
       <c r="G552" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B553" s="2" t="s">
         <v>129</v>
@@ -13920,7 +13914,7 @@
         <v>33</v>
       </c>
       <c r="D553" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E553" s="2" t="s">
         <v>130</v>
@@ -13929,12 +13923,12 @@
         <v>10</v>
       </c>
       <c r="G553" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B554" s="2" t="s">
         <v>131</v>
@@ -13943,7 +13937,7 @@
         <v>33</v>
       </c>
       <c r="D554" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E554" s="2" t="s">
         <v>132</v>
@@ -13952,12 +13946,12 @@
         <v>10</v>
       </c>
       <c r="G554" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B555" s="2" t="s">
         <v>133</v>
@@ -13966,7 +13960,7 @@
         <v>9</v>
       </c>
       <c r="D555" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E555" s="2" t="s">
         <v>134</v>
@@ -13975,12 +13969,12 @@
         <v>10</v>
       </c>
       <c r="G555" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B556" s="2" t="s">
         <v>135</v>
@@ -13989,7 +13983,7 @@
         <v>9</v>
       </c>
       <c r="D556" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E556" s="2" t="s">
         <v>136</v>
@@ -13998,12 +13992,12 @@
         <v>10</v>
       </c>
       <c r="G556" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B557" s="2" t="s">
         <v>137</v>
@@ -14012,7 +14006,7 @@
         <v>9</v>
       </c>
       <c r="D557" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E557" s="2" t="s">
         <v>138</v>
@@ -14021,12 +14015,12 @@
         <v>10</v>
       </c>
       <c r="G557" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B558" s="2" t="s">
         <v>139</v>
@@ -14035,7 +14029,7 @@
         <v>9</v>
       </c>
       <c r="D558" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E558" s="2" t="s">
         <v>140</v>
@@ -14044,12 +14038,12 @@
         <v>10</v>
       </c>
       <c r="G558" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B559" s="2" t="s">
         <v>141</v>
@@ -14058,7 +14052,7 @@
         <v>9</v>
       </c>
       <c r="D559" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E559" s="2" t="s">
         <v>142</v>
@@ -14067,12 +14061,12 @@
         <v>10</v>
       </c>
       <c r="G559" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B560" s="2" t="s">
         <v>143</v>
@@ -14081,7 +14075,7 @@
         <v>33</v>
       </c>
       <c r="D560" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E560" s="2" t="s">
         <v>144</v>
@@ -14090,12 +14084,12 @@
         <v>10</v>
       </c>
       <c r="G560" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B561" s="2" t="s">
         <v>145</v>
@@ -14104,7 +14098,7 @@
         <v>33</v>
       </c>
       <c r="D561" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E561" s="2" t="s">
         <v>146</v>
@@ -14113,12 +14107,12 @@
         <v>10</v>
       </c>
       <c r="G561" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B562" s="2" t="s">
         <v>147</v>
@@ -14127,7 +14121,7 @@
         <v>33</v>
       </c>
       <c r="D562" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E562" s="2" t="s">
         <v>148</v>
@@ -14136,58 +14130,58 @@
         <v>10</v>
       </c>
       <c r="G562" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B563" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C563" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D563" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E563" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B563" s="2" t="s">
+      <c r="F563" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G563" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="C563" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D563" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E563" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="F563" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G563" s="2" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C564" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D564" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E564" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F564" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G564" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B565" s="2" t="s">
         <v>202</v>
@@ -14196,7 +14190,7 @@
         <v>9</v>
       </c>
       <c r="D565" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E565" s="2" t="s">
         <v>204</v>
@@ -14205,12 +14199,12 @@
         <v>40</v>
       </c>
       <c r="G565" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B566" s="2" t="s">
         <v>206</v>
@@ -14219,7 +14213,7 @@
         <v>9</v>
       </c>
       <c r="D566" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E566" s="2" t="s">
         <v>207</v>
@@ -14228,12 +14222,12 @@
         <v>40</v>
       </c>
       <c r="G566" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B567" s="2" t="s">
         <v>208</v>
@@ -14242,7 +14236,7 @@
         <v>9</v>
       </c>
       <c r="D567" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E567" s="2" t="s">
         <v>209</v>
@@ -14251,12 +14245,12 @@
         <v>40</v>
       </c>
       <c r="G567" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B568" s="2" t="s">
         <v>210</v>
@@ -14265,7 +14259,7 @@
         <v>9</v>
       </c>
       <c r="D568" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E568" s="2" t="s">
         <v>211</v>
@@ -14274,12 +14268,12 @@
         <v>10</v>
       </c>
       <c r="G568" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B569" s="2" t="s">
         <v>212</v>
@@ -14288,7 +14282,7 @@
         <v>9</v>
       </c>
       <c r="D569" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E569" s="2" t="s">
         <v>213</v>
@@ -14297,12 +14291,12 @@
         <v>40</v>
       </c>
       <c r="G569" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B570" s="2" t="s">
         <v>214</v>
@@ -14311,7 +14305,7 @@
         <v>9</v>
       </c>
       <c r="D570" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E570" s="2" t="s">
         <v>215</v>
@@ -14320,12 +14314,12 @@
         <v>10</v>
       </c>
       <c r="G570" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B571" s="2" t="s">
         <v>216</v>
@@ -14334,7 +14328,7 @@
         <v>9</v>
       </c>
       <c r="D571" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E571" s="2" t="s">
         <v>217</v>
@@ -14343,12 +14337,12 @@
         <v>40</v>
       </c>
       <c r="G571" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B572" s="2" t="s">
         <v>178</v>
@@ -14357,7 +14351,7 @@
         <v>9</v>
       </c>
       <c r="D572" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E572" s="2" t="s">
         <v>180</v>
@@ -14366,12 +14360,12 @@
         <v>10</v>
       </c>
       <c r="G572" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B573" s="2" t="s">
         <v>181</v>
@@ -14380,7 +14374,7 @@
         <v>33</v>
       </c>
       <c r="D573" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E573" s="2" t="s">
         <v>182</v>
@@ -14389,12 +14383,12 @@
         <v>10</v>
       </c>
       <c r="G573" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B574" s="2" t="s">
         <v>183</v>
@@ -14403,7 +14397,7 @@
         <v>33</v>
       </c>
       <c r="D574" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E574" s="2" t="s">
         <v>184</v>
@@ -14412,12 +14406,12 @@
         <v>10</v>
       </c>
       <c r="G574" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B575" s="2" t="s">
         <v>185</v>
@@ -14426,7 +14420,7 @@
         <v>33</v>
       </c>
       <c r="D575" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E575" s="2" t="s">
         <v>186</v>
@@ -14435,12 +14429,12 @@
         <v>10</v>
       </c>
       <c r="G575" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B576" s="2" t="s">
         <v>187</v>
@@ -14449,7 +14443,7 @@
         <v>33</v>
       </c>
       <c r="D576" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E576" s="2" t="s">
         <v>188</v>
@@ -14458,12 +14452,12 @@
         <v>10</v>
       </c>
       <c r="G576" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B577" s="2" t="s">
         <v>189</v>
@@ -14472,7 +14466,7 @@
         <v>33</v>
       </c>
       <c r="D577" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E577" s="2" t="s">
         <v>190</v>
@@ -14481,12 +14475,12 @@
         <v>10</v>
       </c>
       <c r="G577" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B578" s="2" t="s">
         <v>191</v>
@@ -14495,7 +14489,7 @@
         <v>33</v>
       </c>
       <c r="D578" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E578" s="2" t="s">
         <v>59</v>
@@ -14504,12 +14498,12 @@
         <v>10</v>
       </c>
       <c r="G578" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B579" s="2" t="s">
         <v>192</v>
@@ -14518,7 +14512,7 @@
         <v>33</v>
       </c>
       <c r="D579" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E579" s="2" t="s">
         <v>193</v>
@@ -14527,12 +14521,12 @@
         <v>10</v>
       </c>
       <c r="G579" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B580" s="2" t="s">
         <v>194</v>
@@ -14541,7 +14535,7 @@
         <v>33</v>
       </c>
       <c r="D580" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E580" s="2" t="s">
         <v>62</v>
@@ -14550,12 +14544,12 @@
         <v>10</v>
       </c>
       <c r="G580" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B581" s="2" t="s">
         <v>195</v>
@@ -14564,7 +14558,7 @@
         <v>33</v>
       </c>
       <c r="D581" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E581" s="2" t="s">
         <v>196</v>
@@ -14573,12 +14567,12 @@
         <v>10</v>
       </c>
       <c r="G581" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B582" s="2" t="s">
         <v>197</v>
@@ -14587,7 +14581,7 @@
         <v>9</v>
       </c>
       <c r="D582" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E582" s="2" t="s">
         <v>198</v>
@@ -14596,12 +14590,12 @@
         <v>10</v>
       </c>
       <c r="G582" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B583" s="2" t="s">
         <v>199</v>
@@ -14610,7 +14604,7 @@
         <v>9</v>
       </c>
       <c r="D583" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E583" s="2" t="s">
         <v>200</v>
@@ -14619,12 +14613,12 @@
         <v>10</v>
       </c>
       <c r="G583" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B584" s="2" t="s">
         <v>100</v>
@@ -14633,7 +14627,7 @@
         <v>9</v>
       </c>
       <c r="D584" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E584" s="2" t="s">
         <v>106</v>
@@ -14642,12 +14636,12 @@
         <v>10</v>
       </c>
       <c r="G584" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B585" s="2" t="s">
         <v>102</v>
@@ -14656,7 +14650,7 @@
         <v>9</v>
       </c>
       <c r="D585" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E585" s="2" t="s">
         <v>108</v>
@@ -14665,12 +14659,12 @@
         <v>10</v>
       </c>
       <c r="G585" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B586" s="2" t="s">
         <v>109</v>
@@ -14679,7 +14673,7 @@
         <v>9</v>
       </c>
       <c r="D586" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E586" s="2" t="s">
         <v>110</v>
@@ -14688,12 +14682,12 @@
         <v>10</v>
       </c>
       <c r="G586" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B587" s="2" t="s">
         <v>111</v>
@@ -14702,7 +14696,7 @@
         <v>9</v>
       </c>
       <c r="D587" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E587" s="2" t="s">
         <v>112</v>
@@ -14711,12 +14705,12 @@
         <v>10</v>
       </c>
       <c r="G587" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B588" s="2" t="s">
         <v>113</v>
@@ -14725,7 +14719,7 @@
         <v>9</v>
       </c>
       <c r="D588" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E588" s="2" t="s">
         <v>114</v>
@@ -14734,12 +14728,12 @@
         <v>10</v>
       </c>
       <c r="G588" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B589" s="2" t="s">
         <v>115</v>
@@ -14748,7 +14742,7 @@
         <v>9</v>
       </c>
       <c r="D589" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E589" s="2" t="s">
         <v>116</v>
@@ -14757,12 +14751,12 @@
         <v>10</v>
       </c>
       <c r="G589" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B590" s="2" t="s">
         <v>117</v>
@@ -14771,7 +14765,7 @@
         <v>9</v>
       </c>
       <c r="D590" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E590" s="2" t="s">
         <v>118</v>
@@ -14780,12 +14774,12 @@
         <v>10</v>
       </c>
       <c r="G590" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B591" s="2" t="s">
         <v>119</v>
@@ -14794,7 +14788,7 @@
         <v>9</v>
       </c>
       <c r="D591" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E591" s="2" t="s">
         <v>120</v>
@@ -14803,12 +14797,12 @@
         <v>10</v>
       </c>
       <c r="G591" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B592" s="2" t="s">
         <v>121</v>
@@ -14817,7 +14811,7 @@
         <v>9</v>
       </c>
       <c r="D592" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E592" s="2" t="s">
         <v>122</v>
@@ -14826,12 +14820,12 @@
         <v>10</v>
       </c>
       <c r="G592" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B593" s="2" t="s">
         <v>123</v>
@@ -14840,7 +14834,7 @@
         <v>9</v>
       </c>
       <c r="D593" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E593" s="2" t="s">
         <v>124</v>
@@ -14849,12 +14843,12 @@
         <v>10</v>
       </c>
       <c r="G593" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B594" s="2" t="s">
         <v>125</v>
@@ -14863,7 +14857,7 @@
         <v>9</v>
       </c>
       <c r="D594" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E594" s="2" t="s">
         <v>126</v>
@@ -14872,12 +14866,12 @@
         <v>10</v>
       </c>
       <c r="G594" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B595" s="2" t="s">
         <v>127</v>
@@ -14886,7 +14880,7 @@
         <v>9</v>
       </c>
       <c r="D595" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E595" s="2" t="s">
         <v>128</v>
@@ -14895,12 +14889,12 @@
         <v>10</v>
       </c>
       <c r="G595" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B596" s="2" t="s">
         <v>129</v>
@@ -14909,7 +14903,7 @@
         <v>9</v>
       </c>
       <c r="D596" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E596" s="2" t="s">
         <v>130</v>
@@ -14918,12 +14912,12 @@
         <v>10</v>
       </c>
       <c r="G596" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B597" s="2" t="s">
         <v>131</v>
@@ -14932,7 +14926,7 @@
         <v>9</v>
       </c>
       <c r="D597" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E597" s="2" t="s">
         <v>132</v>
@@ -14941,12 +14935,12 @@
         <v>10</v>
       </c>
       <c r="G597" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B598" s="2" t="s">
         <v>133</v>
@@ -14955,7 +14949,7 @@
         <v>9</v>
       </c>
       <c r="D598" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E598" s="2" t="s">
         <v>134</v>
@@ -14964,12 +14958,12 @@
         <v>10</v>
       </c>
       <c r="G598" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B599" s="2" t="s">
         <v>135</v>
@@ -14978,7 +14972,7 @@
         <v>9</v>
       </c>
       <c r="D599" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E599" s="2" t="s">
         <v>136</v>
@@ -14987,12 +14981,12 @@
         <v>10</v>
       </c>
       <c r="G599" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B600" s="2" t="s">
         <v>137</v>
@@ -15001,7 +14995,7 @@
         <v>9</v>
       </c>
       <c r="D600" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E600" s="2" t="s">
         <v>138</v>
@@ -15010,12 +15004,12 @@
         <v>10</v>
       </c>
       <c r="G600" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B601" s="2" t="s">
         <v>139</v>
@@ -15024,7 +15018,7 @@
         <v>9</v>
       </c>
       <c r="D601" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E601" s="2" t="s">
         <v>140</v>
@@ -15033,12 +15027,12 @@
         <v>10</v>
       </c>
       <c r="G601" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B602" s="2" t="s">
         <v>141</v>
@@ -15047,7 +15041,7 @@
         <v>9</v>
       </c>
       <c r="D602" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E602" s="2" t="s">
         <v>142</v>
@@ -15056,12 +15050,12 @@
         <v>10</v>
       </c>
       <c r="G602" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B603" s="2" t="s">
         <v>143</v>
@@ -15070,7 +15064,7 @@
         <v>9</v>
       </c>
       <c r="D603" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E603" s="2" t="s">
         <v>144</v>
@@ -15079,12 +15073,12 @@
         <v>10</v>
       </c>
       <c r="G603" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B604" s="2" t="s">
         <v>145</v>
@@ -15093,7 +15087,7 @@
         <v>9</v>
       </c>
       <c r="D604" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E604" s="2" t="s">
         <v>146</v>
@@ -15102,12 +15096,12 @@
         <v>10</v>
       </c>
       <c r="G604" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B605" s="2" t="s">
         <v>147</v>
@@ -15116,7 +15110,7 @@
         <v>9</v>
       </c>
       <c r="D605" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E605" s="2" t="s">
         <v>148</v>
@@ -15125,12 +15119,12 @@
         <v>10</v>
       </c>
       <c r="G605" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B606" s="2" t="s">
         <v>100</v>
@@ -15139,21 +15133,21 @@
         <v>9</v>
       </c>
       <c r="D606" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E606" s="2" t="s">
         <v>106</v>
       </c>
       <c r="F606" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G606" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B607" s="2" t="s">
         <v>102</v>
@@ -15162,7 +15156,7 @@
         <v>33</v>
       </c>
       <c r="D607" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E607" s="2" t="s">
         <v>108</v>
@@ -15171,12 +15165,12 @@
         <v>10</v>
       </c>
       <c r="G607" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B608" s="2" t="s">
         <v>109</v>
@@ -15185,7 +15179,7 @@
         <v>33</v>
       </c>
       <c r="D608" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E608" s="2" t="s">
         <v>110</v>
@@ -15194,12 +15188,12 @@
         <v>10</v>
       </c>
       <c r="G608" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B609" s="2" t="s">
         <v>111</v>
@@ -15208,7 +15202,7 @@
         <v>33</v>
       </c>
       <c r="D609" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E609" s="2" t="s">
         <v>112</v>
@@ -15217,12 +15211,12 @@
         <v>10</v>
       </c>
       <c r="G609" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B610" s="2" t="s">
         <v>113</v>
@@ -15231,7 +15225,7 @@
         <v>33</v>
       </c>
       <c r="D610" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E610" s="2" t="s">
         <v>114</v>
@@ -15240,12 +15234,12 @@
         <v>10</v>
       </c>
       <c r="G610" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B611" s="2" t="s">
         <v>115</v>
@@ -15254,7 +15248,7 @@
         <v>33</v>
       </c>
       <c r="D611" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E611" s="2" t="s">
         <v>116</v>
@@ -15263,12 +15257,12 @@
         <v>10</v>
       </c>
       <c r="G611" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B612" s="2" t="s">
         <v>117</v>
@@ -15277,7 +15271,7 @@
         <v>9</v>
       </c>
       <c r="D612" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E612" s="2" t="s">
         <v>118</v>
@@ -15286,12 +15280,12 @@
         <v>10</v>
       </c>
       <c r="G612" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B613" s="2" t="s">
         <v>119</v>
@@ -15300,7 +15294,7 @@
         <v>9</v>
       </c>
       <c r="D613" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E613" s="2" t="s">
         <v>120</v>
@@ -15309,12 +15303,12 @@
         <v>10</v>
       </c>
       <c r="G613" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B614" s="2" t="s">
         <v>121</v>
@@ -15323,7 +15317,7 @@
         <v>9</v>
       </c>
       <c r="D614" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E614" s="2" t="s">
         <v>122</v>
@@ -15332,12 +15326,12 @@
         <v>10</v>
       </c>
       <c r="G614" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B615" s="2" t="s">
         <v>123</v>
@@ -15346,21 +15340,21 @@
         <v>9</v>
       </c>
       <c r="D615" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E615" s="2" t="s">
         <v>124</v>
       </c>
       <c r="F615" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G615" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B616" s="2" t="s">
         <v>125</v>
@@ -15369,7 +15363,7 @@
         <v>33</v>
       </c>
       <c r="D616" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E616" s="2" t="s">
         <v>126</v>
@@ -15378,12 +15372,12 @@
         <v>10</v>
       </c>
       <c r="G616" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B617" s="2" t="s">
         <v>127</v>
@@ -15392,7 +15386,7 @@
         <v>33</v>
       </c>
       <c r="D617" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E617" s="2" t="s">
         <v>128</v>
@@ -15401,12 +15395,12 @@
         <v>10</v>
       </c>
       <c r="G617" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B618" s="2" t="s">
         <v>129</v>
@@ -15415,7 +15409,7 @@
         <v>33</v>
       </c>
       <c r="D618" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E618" s="2" t="s">
         <v>130</v>
@@ -15424,12 +15418,12 @@
         <v>10</v>
       </c>
       <c r="G618" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B619" s="2" t="s">
         <v>131</v>
@@ -15438,7 +15432,7 @@
         <v>33</v>
       </c>
       <c r="D619" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E619" s="2" t="s">
         <v>132</v>
@@ -15447,12 +15441,12 @@
         <v>10</v>
       </c>
       <c r="G619" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B620" s="2" t="s">
         <v>133</v>
@@ -15461,7 +15455,7 @@
         <v>9</v>
       </c>
       <c r="D620" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E620" s="2" t="s">
         <v>134</v>
@@ -15470,12 +15464,12 @@
         <v>10</v>
       </c>
       <c r="G620" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B621" s="2" t="s">
         <v>135</v>
@@ -15484,7 +15478,7 @@
         <v>9</v>
       </c>
       <c r="D621" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E621" s="2" t="s">
         <v>136</v>
@@ -15493,12 +15487,12 @@
         <v>10</v>
       </c>
       <c r="G621" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B622" s="2" t="s">
         <v>137</v>
@@ -15507,7 +15501,7 @@
         <v>9</v>
       </c>
       <c r="D622" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E622" s="2" t="s">
         <v>138</v>
@@ -15516,12 +15510,12 @@
         <v>10</v>
       </c>
       <c r="G622" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B623" s="2" t="s">
         <v>139</v>
@@ -15530,21 +15524,21 @@
         <v>9</v>
       </c>
       <c r="D623" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E623" s="2" t="s">
         <v>140</v>
       </c>
       <c r="F623" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G623" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B624" s="2" t="s">
         <v>141</v>
@@ -15553,7 +15547,7 @@
         <v>9</v>
       </c>
       <c r="D624" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E624" s="2" t="s">
         <v>142</v>
@@ -15562,12 +15556,12 @@
         <v>10</v>
       </c>
       <c r="G624" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B625" s="2" t="s">
         <v>143</v>
@@ -15576,7 +15570,7 @@
         <v>33</v>
       </c>
       <c r="D625" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E625" s="2" t="s">
         <v>144</v>
@@ -15585,12 +15579,12 @@
         <v>10</v>
       </c>
       <c r="G625" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B626" s="2" t="s">
         <v>145</v>
@@ -15599,7 +15593,7 @@
         <v>33</v>
       </c>
       <c r="D626" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E626" s="2" t="s">
         <v>146</v>
@@ -15608,12 +15602,12 @@
         <v>10</v>
       </c>
       <c r="G626" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B627" s="2" t="s">
         <v>147</v>
@@ -15622,7 +15616,7 @@
         <v>33</v>
       </c>
       <c r="D627" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E627" s="2" t="s">
         <v>148</v>
@@ -15631,15 +15625,15 @@
         <v>10</v>
       </c>
       <c r="G627" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C628" s="2" t="s">
         <v>33</v>
@@ -15648,7 +15642,7 @@
         <v>91</v>
       </c>
       <c r="E628" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F628" s="2" t="s">
         <v>10</v>
@@ -15659,10 +15653,10 @@
     </row>
     <row r="629">
       <c r="A629" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C629" s="2" t="s">
         <v>9</v>
@@ -15671,10 +15665,10 @@
         <v>91</v>
       </c>
       <c r="E629" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F629" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G629" s="2" t="s">
         <v>60</v>
@@ -15682,10 +15676,10 @@
     </row>
     <row r="630">
       <c r="A630" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C630" s="2" t="s">
         <v>33</v>
@@ -15694,7 +15688,7 @@
         <v>91</v>
       </c>
       <c r="E630" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F630" s="2" t="s">
         <v>10</v>
@@ -15705,10 +15699,10 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C631" s="2" t="s">
         <v>9</v>
@@ -15717,7 +15711,7 @@
         <v>91</v>
       </c>
       <c r="E631" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F631" s="2" t="s">
         <v>10</v>
@@ -15728,10 +15722,10 @@
     </row>
     <row r="632">
       <c r="A632" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C632" s="2" t="s">
         <v>33</v>
@@ -15740,7 +15734,7 @@
         <v>58</v>
       </c>
       <c r="E632" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F632" s="2" t="s">
         <v>10</v>
@@ -15751,10 +15745,10 @@
     </row>
     <row r="633">
       <c r="A633" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C633" s="2" t="s">
         <v>33</v>
@@ -15763,7 +15757,7 @@
         <v>91</v>
       </c>
       <c r="E633" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F633" s="2" t="s">
         <v>10</v>
@@ -15774,10 +15768,10 @@
     </row>
     <row r="634">
       <c r="A634" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C634" s="2" t="s">
         <v>33</v>
@@ -15786,7 +15780,7 @@
         <v>91</v>
       </c>
       <c r="E634" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F634" s="2" t="s">
         <v>10</v>
@@ -15797,10 +15791,10 @@
     </row>
     <row r="635">
       <c r="A635" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C635" s="2" t="s">
         <v>33</v>
@@ -15809,7 +15803,7 @@
         <v>91</v>
       </c>
       <c r="E635" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F635" s="2" t="s">
         <v>10</v>
@@ -15820,10 +15814,10 @@
     </row>
     <row r="636">
       <c r="A636" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C636" s="2" t="s">
         <v>33</v>
@@ -15832,7 +15826,7 @@
         <v>91</v>
       </c>
       <c r="E636" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F636" s="2" t="s">
         <v>10</v>
@@ -15843,10 +15837,10 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C637" s="2" t="s">
         <v>33</v>
@@ -15855,7 +15849,7 @@
         <v>91</v>
       </c>
       <c r="E637" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F637" s="2" t="s">
         <v>10</v>
@@ -15866,10 +15860,10 @@
     </row>
     <row r="638">
       <c r="A638" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C638" s="2" t="s">
         <v>33</v>
@@ -15878,7 +15872,7 @@
         <v>91</v>
       </c>
       <c r="E638" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F638" s="2" t="s">
         <v>10</v>
@@ -15889,10 +15883,10 @@
     </row>
     <row r="639">
       <c r="A639" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C639" s="2" t="s">
         <v>33</v>
@@ -15901,7 +15895,7 @@
         <v>91</v>
       </c>
       <c r="E639" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F639" s="2" t="s">
         <v>10</v>
@@ -15912,10 +15906,10 @@
     </row>
     <row r="640">
       <c r="A640" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C640" s="2" t="s">
         <v>33</v>
@@ -15924,7 +15918,7 @@
         <v>91</v>
       </c>
       <c r="E640" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F640" s="2" t="s">
         <v>10</v>
@@ -15935,10 +15929,10 @@
     </row>
     <row r="641">
       <c r="A641" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C641" s="2" t="s">
         <v>33</v>
@@ -15947,7 +15941,7 @@
         <v>91</v>
       </c>
       <c r="E641" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F641" s="2" t="s">
         <v>10</v>
@@ -15958,19 +15952,19 @@
     </row>
     <row r="642">
       <c r="A642" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C642" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D642" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E642" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F642" s="2" t="s">
         <v>10</v>
@@ -15981,19 +15975,19 @@
     </row>
     <row r="643">
       <c r="A643" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B643" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C643" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D643" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E643" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="C643" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D643" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E643" s="2" t="s">
-        <v>360</v>
       </c>
       <c r="F643" s="2" t="s">
         <v>10</v>
@@ -16004,19 +15998,19 @@
     </row>
     <row r="644">
       <c r="A644" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C644" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D644" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E644" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F644" s="2" t="s">
         <v>10</v>
@@ -16027,10 +16021,10 @@
     </row>
     <row r="645">
       <c r="A645" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C645" s="2" t="s">
         <v>33</v>
@@ -16039,7 +16033,7 @@
         <v>91</v>
       </c>
       <c r="E645" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F645" s="2" t="s">
         <v>10</v>
@@ -16050,10 +16044,10 @@
     </row>
     <row r="646">
       <c r="A646" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C646" s="2" t="s">
         <v>33</v>
@@ -16062,7 +16056,7 @@
         <v>243</v>
       </c>
       <c r="E646" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F646" s="2" t="s">
         <v>10</v>
@@ -16073,10 +16067,10 @@
     </row>
     <row r="647">
       <c r="A647" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C647" s="2" t="s">
         <v>33</v>
@@ -16085,7 +16079,7 @@
         <v>243</v>
       </c>
       <c r="E647" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F647" s="2" t="s">
         <v>10</v>
@@ -16096,48 +16090,48 @@
     </row>
     <row r="648">
       <c r="A648" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B648" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C648" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D648" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B648" s="2" t="s">
+      <c r="E648" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C648" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D648" s="2" t="s">
+      <c r="F648" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G648" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="E648" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F648" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G648" s="2" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B649" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C649" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D649" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B649" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C649" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D649" s="2" t="s">
+      <c r="E649" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F649" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G649" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="E649" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="F649" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G649" s="2" t="s">
-        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_010.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_010.xlsx
@@ -2530,7 +2530,7 @@
         <v>100</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>101</v>
@@ -2539,7 +2539,7 @@
         <v>102</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>60</v>
@@ -2576,7 +2576,7 @@
         <v>105</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>101</v>
@@ -2599,7 +2599,7 @@
         <v>107</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>101</v>
@@ -2622,7 +2622,7 @@
         <v>109</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>101</v>
@@ -2645,7 +2645,7 @@
         <v>111</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>101</v>
@@ -2760,7 +2760,7 @@
         <v>121</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>101</v>
@@ -2783,7 +2783,7 @@
         <v>123</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>101</v>
@@ -2806,7 +2806,7 @@
         <v>125</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>101</v>
@@ -2829,7 +2829,7 @@
         <v>127</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>101</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_010.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_010.xlsx
@@ -4376,7 +4376,7 @@
         <v>123</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>153</v>
@@ -4399,7 +4399,7 @@
         <v>125</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>153</v>
@@ -4408,7 +4408,7 @@
         <v>126</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>154</v>
@@ -4905,7 +4905,7 @@
         <v>123</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>156</v>
@@ -4928,7 +4928,7 @@
         <v>125</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>156</v>
@@ -4937,7 +4937,7 @@
         <v>126</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>157</v>
@@ -5434,7 +5434,7 @@
         <v>123</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>159</v>
@@ -5457,7 +5457,7 @@
         <v>125</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>159</v>
@@ -5466,7 +5466,7 @@
         <v>126</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>160</v>
@@ -5963,7 +5963,7 @@
         <v>123</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>162</v>
@@ -5986,7 +5986,7 @@
         <v>125</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>162</v>
@@ -5995,7 +5995,7 @@
         <v>126</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G207" s="2" t="s">
         <v>163</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_010.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4830" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4830" uniqueCount="386">
   <si>
     <t>Sezione</t>
   </si>
@@ -998,7 +998,10 @@
     <t>66,68,70,71,72,64</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -16517,7 +16520,7 @@
         <v>325</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>145</v>
+        <v>329</v>
       </c>
       <c r="C665" s="2" t="s">
         <v>33</v>
@@ -16537,10 +16540,10 @@
     </row>
     <row r="666">
       <c r="A666" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C666" s="2" t="s">
         <v>33</v>
@@ -16549,7 +16552,7 @@
         <v>91</v>
       </c>
       <c r="E666" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F666" s="2" t="s">
         <v>10</v>
@@ -16560,10 +16563,10 @@
     </row>
     <row r="667">
       <c r="A667" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C667" s="2" t="s">
         <v>9</v>
@@ -16572,10 +16575,10 @@
         <v>91</v>
       </c>
       <c r="E667" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F667" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G667" s="2" t="s">
         <v>60</v>
@@ -16583,10 +16586,10 @@
     </row>
     <row r="668">
       <c r="A668" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C668" s="2" t="s">
         <v>33</v>
@@ -16595,7 +16598,7 @@
         <v>91</v>
       </c>
       <c r="E668" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F668" s="2" t="s">
         <v>10</v>
@@ -16606,10 +16609,10 @@
     </row>
     <row r="669">
       <c r="A669" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C669" s="2" t="s">
         <v>9</v>
@@ -16618,7 +16621,7 @@
         <v>91</v>
       </c>
       <c r="E669" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F669" s="2" t="s">
         <v>10</v>
@@ -16629,10 +16632,10 @@
     </row>
     <row r="670">
       <c r="A670" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C670" s="2" t="s">
         <v>33</v>
@@ -16641,7 +16644,7 @@
         <v>58</v>
       </c>
       <c r="E670" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F670" s="2" t="s">
         <v>10</v>
@@ -16652,10 +16655,10 @@
     </row>
     <row r="671">
       <c r="A671" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C671" s="2" t="s">
         <v>33</v>
@@ -16664,7 +16667,7 @@
         <v>91</v>
       </c>
       <c r="E671" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F671" s="2" t="s">
         <v>10</v>
@@ -16675,10 +16678,10 @@
     </row>
     <row r="672">
       <c r="A672" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C672" s="2" t="s">
         <v>33</v>
@@ -16687,7 +16690,7 @@
         <v>91</v>
       </c>
       <c r="E672" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F672" s="2" t="s">
         <v>10</v>
@@ -16698,10 +16701,10 @@
     </row>
     <row r="673">
       <c r="A673" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C673" s="2" t="s">
         <v>33</v>
@@ -16710,7 +16713,7 @@
         <v>91</v>
       </c>
       <c r="E673" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F673" s="2" t="s">
         <v>10</v>
@@ -16721,10 +16724,10 @@
     </row>
     <row r="674">
       <c r="A674" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C674" s="2" t="s">
         <v>33</v>
@@ -16733,7 +16736,7 @@
         <v>91</v>
       </c>
       <c r="E674" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F674" s="2" t="s">
         <v>10</v>
@@ -16744,10 +16747,10 @@
     </row>
     <row r="675">
       <c r="A675" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C675" s="2" t="s">
         <v>33</v>
@@ -16756,7 +16759,7 @@
         <v>91</v>
       </c>
       <c r="E675" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F675" s="2" t="s">
         <v>10</v>
@@ -16767,10 +16770,10 @@
     </row>
     <row r="676">
       <c r="A676" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C676" s="2" t="s">
         <v>33</v>
@@ -16779,7 +16782,7 @@
         <v>91</v>
       </c>
       <c r="E676" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F676" s="2" t="s">
         <v>10</v>
@@ -16790,10 +16793,10 @@
     </row>
     <row r="677">
       <c r="A677" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C677" s="2" t="s">
         <v>33</v>
@@ -16802,7 +16805,7 @@
         <v>91</v>
       </c>
       <c r="E677" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F677" s="2" t="s">
         <v>10</v>
@@ -16813,10 +16816,10 @@
     </row>
     <row r="678">
       <c r="A678" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C678" s="2" t="s">
         <v>33</v>
@@ -16825,7 +16828,7 @@
         <v>91</v>
       </c>
       <c r="E678" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F678" s="2" t="s">
         <v>10</v>
@@ -16836,10 +16839,10 @@
     </row>
     <row r="679">
       <c r="A679" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C679" s="2" t="s">
         <v>33</v>
@@ -16848,7 +16851,7 @@
         <v>91</v>
       </c>
       <c r="E679" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F679" s="2" t="s">
         <v>10</v>
@@ -16859,10 +16862,10 @@
     </row>
     <row r="680">
       <c r="A680" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C680" s="2" t="s">
         <v>33</v>
@@ -16871,7 +16874,7 @@
         <v>294</v>
       </c>
       <c r="E680" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F680" s="2" t="s">
         <v>10</v>
@@ -16882,19 +16885,19 @@
     </row>
     <row r="681">
       <c r="A681" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C681" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D681" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E681" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F681" s="2" t="s">
         <v>10</v>
@@ -16905,10 +16908,10 @@
     </row>
     <row r="682">
       <c r="A682" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C682" s="2" t="s">
         <v>9</v>
@@ -16917,7 +16920,7 @@
         <v>294</v>
       </c>
       <c r="E682" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F682" s="2" t="s">
         <v>10</v>
@@ -16928,10 +16931,10 @@
     </row>
     <row r="683">
       <c r="A683" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C683" s="2" t="s">
         <v>33</v>
@@ -16940,7 +16943,7 @@
         <v>91</v>
       </c>
       <c r="E683" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F683" s="2" t="s">
         <v>10</v>
@@ -16951,10 +16954,10 @@
     </row>
     <row r="684">
       <c r="A684" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C684" s="2" t="s">
         <v>33</v>
@@ -16963,7 +16966,7 @@
         <v>245</v>
       </c>
       <c r="E684" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F684" s="2" t="s">
         <v>10</v>
@@ -16974,10 +16977,10 @@
     </row>
     <row r="685">
       <c r="A685" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C685" s="2" t="s">
         <v>33</v>
@@ -16986,7 +16989,7 @@
         <v>245</v>
       </c>
       <c r="E685" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F685" s="2" t="s">
         <v>10</v>
@@ -16997,10 +17000,10 @@
     </row>
     <row r="686">
       <c r="A686" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C686" s="2" t="s">
         <v>9</v>
@@ -17009,7 +17012,7 @@
         <v>91</v>
       </c>
       <c r="E686" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F686" s="2" t="s">
         <v>10</v>
@@ -17020,10 +17023,10 @@
     </row>
     <row r="687">
       <c r="A687" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C687" s="2" t="s">
         <v>9</v>
@@ -17032,7 +17035,7 @@
         <v>91</v>
       </c>
       <c r="E687" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F687" s="2" t="s">
         <v>10</v>
@@ -17043,71 +17046,71 @@
     </row>
     <row r="688">
       <c r="A688" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C688" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D688" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E688" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F688" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G688" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B689" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C689" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D689" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E689" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F689" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G689" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="C689" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D689" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="E689" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="F689" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G689" s="2" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C690" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D690" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E690" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F690" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G690" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_010.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4830" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4830" uniqueCount="385">
   <si>
     <t>Sezione</t>
   </si>
@@ -999,9 +999,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -16520,7 +16517,7 @@
         <v>325</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>329</v>
+        <v>145</v>
       </c>
       <c r="C665" s="2" t="s">
         <v>33</v>
@@ -16540,10 +16537,10 @@
     </row>
     <row r="666">
       <c r="A666" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B666" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="B666" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="C666" s="2" t="s">
         <v>33</v>
@@ -16552,7 +16549,7 @@
         <v>91</v>
       </c>
       <c r="E666" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F666" s="2" t="s">
         <v>10</v>
@@ -16563,10 +16560,10 @@
     </row>
     <row r="667">
       <c r="A667" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C667" s="2" t="s">
         <v>9</v>
@@ -16575,10 +16572,10 @@
         <v>91</v>
       </c>
       <c r="E667" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F667" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="F667" s="2" t="s">
-        <v>335</v>
       </c>
       <c r="G667" s="2" t="s">
         <v>60</v>
@@ -16586,10 +16583,10 @@
     </row>
     <row r="668">
       <c r="A668" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C668" s="2" t="s">
         <v>33</v>
@@ -16598,7 +16595,7 @@
         <v>91</v>
       </c>
       <c r="E668" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F668" s="2" t="s">
         <v>10</v>
@@ -16609,10 +16606,10 @@
     </row>
     <row r="669">
       <c r="A669" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C669" s="2" t="s">
         <v>9</v>
@@ -16621,7 +16618,7 @@
         <v>91</v>
       </c>
       <c r="E669" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F669" s="2" t="s">
         <v>10</v>
@@ -16632,10 +16629,10 @@
     </row>
     <row r="670">
       <c r="A670" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C670" s="2" t="s">
         <v>33</v>
@@ -16644,7 +16641,7 @@
         <v>58</v>
       </c>
       <c r="E670" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F670" s="2" t="s">
         <v>10</v>
@@ -16655,10 +16652,10 @@
     </row>
     <row r="671">
       <c r="A671" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C671" s="2" t="s">
         <v>33</v>
@@ -16667,7 +16664,7 @@
         <v>91</v>
       </c>
       <c r="E671" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F671" s="2" t="s">
         <v>10</v>
@@ -16678,10 +16675,10 @@
     </row>
     <row r="672">
       <c r="A672" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C672" s="2" t="s">
         <v>33</v>
@@ -16690,7 +16687,7 @@
         <v>91</v>
       </c>
       <c r="E672" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F672" s="2" t="s">
         <v>10</v>
@@ -16701,10 +16698,10 @@
     </row>
     <row r="673">
       <c r="A673" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C673" s="2" t="s">
         <v>33</v>
@@ -16713,7 +16710,7 @@
         <v>91</v>
       </c>
       <c r="E673" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F673" s="2" t="s">
         <v>10</v>
@@ -16724,10 +16721,10 @@
     </row>
     <row r="674">
       <c r="A674" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C674" s="2" t="s">
         <v>33</v>
@@ -16736,7 +16733,7 @@
         <v>91</v>
       </c>
       <c r="E674" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F674" s="2" t="s">
         <v>10</v>
@@ -16747,10 +16744,10 @@
     </row>
     <row r="675">
       <c r="A675" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C675" s="2" t="s">
         <v>33</v>
@@ -16759,7 +16756,7 @@
         <v>91</v>
       </c>
       <c r="E675" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F675" s="2" t="s">
         <v>10</v>
@@ -16770,10 +16767,10 @@
     </row>
     <row r="676">
       <c r="A676" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C676" s="2" t="s">
         <v>33</v>
@@ -16782,7 +16779,7 @@
         <v>91</v>
       </c>
       <c r="E676" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F676" s="2" t="s">
         <v>10</v>
@@ -16793,10 +16790,10 @@
     </row>
     <row r="677">
       <c r="A677" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C677" s="2" t="s">
         <v>33</v>
@@ -16805,7 +16802,7 @@
         <v>91</v>
       </c>
       <c r="E677" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F677" s="2" t="s">
         <v>10</v>
@@ -16816,10 +16813,10 @@
     </row>
     <row r="678">
       <c r="A678" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C678" s="2" t="s">
         <v>33</v>
@@ -16828,7 +16825,7 @@
         <v>91</v>
       </c>
       <c r="E678" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F678" s="2" t="s">
         <v>10</v>
@@ -16839,10 +16836,10 @@
     </row>
     <row r="679">
       <c r="A679" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C679" s="2" t="s">
         <v>33</v>
@@ -16851,7 +16848,7 @@
         <v>91</v>
       </c>
       <c r="E679" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F679" s="2" t="s">
         <v>10</v>
@@ -16862,10 +16859,10 @@
     </row>
     <row r="680">
       <c r="A680" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C680" s="2" t="s">
         <v>33</v>
@@ -16874,7 +16871,7 @@
         <v>294</v>
       </c>
       <c r="E680" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F680" s="2" t="s">
         <v>10</v>
@@ -16885,19 +16882,19 @@
     </row>
     <row r="681">
       <c r="A681" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B681" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C681" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D681" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C681" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D681" s="2" t="s">
+      <c r="E681" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="E681" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="F681" s="2" t="s">
         <v>10</v>
@@ -16908,10 +16905,10 @@
     </row>
     <row r="682">
       <c r="A682" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C682" s="2" t="s">
         <v>9</v>
@@ -16920,7 +16917,7 @@
         <v>294</v>
       </c>
       <c r="E682" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F682" s="2" t="s">
         <v>10</v>
@@ -16931,10 +16928,10 @@
     </row>
     <row r="683">
       <c r="A683" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C683" s="2" t="s">
         <v>33</v>
@@ -16943,7 +16940,7 @@
         <v>91</v>
       </c>
       <c r="E683" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F683" s="2" t="s">
         <v>10</v>
@@ -16954,10 +16951,10 @@
     </row>
     <row r="684">
       <c r="A684" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C684" s="2" t="s">
         <v>33</v>
@@ -16966,7 +16963,7 @@
         <v>245</v>
       </c>
       <c r="E684" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F684" s="2" t="s">
         <v>10</v>
@@ -16977,10 +16974,10 @@
     </row>
     <row r="685">
       <c r="A685" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C685" s="2" t="s">
         <v>33</v>
@@ -16989,7 +16986,7 @@
         <v>245</v>
       </c>
       <c r="E685" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F685" s="2" t="s">
         <v>10</v>
@@ -17000,10 +16997,10 @@
     </row>
     <row r="686">
       <c r="A686" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C686" s="2" t="s">
         <v>9</v>
@@ -17012,7 +17009,7 @@
         <v>91</v>
       </c>
       <c r="E686" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F686" s="2" t="s">
         <v>10</v>
@@ -17023,10 +17020,10 @@
     </row>
     <row r="687">
       <c r="A687" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C687" s="2" t="s">
         <v>9</v>
@@ -17035,7 +17032,7 @@
         <v>91</v>
       </c>
       <c r="E687" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F687" s="2" t="s">
         <v>10</v>
@@ -17046,71 +17043,71 @@
     </row>
     <row r="688">
       <c r="A688" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B688" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B688" s="2" t="s">
+      <c r="C688" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D688" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C688" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D688" s="2" t="s">
+      <c r="E688" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="E688" s="2" t="s">
+      <c r="F688" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G688" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="F688" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G688" s="2" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B689" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C689" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D689" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E689" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C689" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D689" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="E689" s="2" t="s">
-        <v>383</v>
-      </c>
       <c r="F689" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G689" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B690" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C690" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D690" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E690" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="C690" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D690" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="E690" s="2" t="s">
-        <v>385</v>
-      </c>
       <c r="F690" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G690" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_010.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4830" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4830" uniqueCount="386">
   <si>
     <t>Sezione</t>
   </si>
@@ -999,6 +999,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -16517,7 +16520,7 @@
         <v>325</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>145</v>
+        <v>329</v>
       </c>
       <c r="C665" s="2" t="s">
         <v>33</v>
@@ -16537,10 +16540,10 @@
     </row>
     <row r="666">
       <c r="A666" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C666" s="2" t="s">
         <v>33</v>
@@ -16549,7 +16552,7 @@
         <v>91</v>
       </c>
       <c r="E666" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F666" s="2" t="s">
         <v>10</v>
@@ -16560,10 +16563,10 @@
     </row>
     <row r="667">
       <c r="A667" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C667" s="2" t="s">
         <v>9</v>
@@ -16572,10 +16575,10 @@
         <v>91</v>
       </c>
       <c r="E667" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F667" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G667" s="2" t="s">
         <v>60</v>
@@ -16583,10 +16586,10 @@
     </row>
     <row r="668">
       <c r="A668" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C668" s="2" t="s">
         <v>33</v>
@@ -16595,7 +16598,7 @@
         <v>91</v>
       </c>
       <c r="E668" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F668" s="2" t="s">
         <v>10</v>
@@ -16606,10 +16609,10 @@
     </row>
     <row r="669">
       <c r="A669" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C669" s="2" t="s">
         <v>9</v>
@@ -16618,7 +16621,7 @@
         <v>91</v>
       </c>
       <c r="E669" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F669" s="2" t="s">
         <v>10</v>
@@ -16629,10 +16632,10 @@
     </row>
     <row r="670">
       <c r="A670" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C670" s="2" t="s">
         <v>33</v>
@@ -16641,7 +16644,7 @@
         <v>58</v>
       </c>
       <c r="E670" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F670" s="2" t="s">
         <v>10</v>
@@ -16652,10 +16655,10 @@
     </row>
     <row r="671">
       <c r="A671" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C671" s="2" t="s">
         <v>33</v>
@@ -16664,7 +16667,7 @@
         <v>91</v>
       </c>
       <c r="E671" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F671" s="2" t="s">
         <v>10</v>
@@ -16675,10 +16678,10 @@
     </row>
     <row r="672">
       <c r="A672" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C672" s="2" t="s">
         <v>33</v>
@@ -16687,7 +16690,7 @@
         <v>91</v>
       </c>
       <c r="E672" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F672" s="2" t="s">
         <v>10</v>
@@ -16698,10 +16701,10 @@
     </row>
     <row r="673">
       <c r="A673" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C673" s="2" t="s">
         <v>33</v>
@@ -16710,7 +16713,7 @@
         <v>91</v>
       </c>
       <c r="E673" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F673" s="2" t="s">
         <v>10</v>
@@ -16721,10 +16724,10 @@
     </row>
     <row r="674">
       <c r="A674" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C674" s="2" t="s">
         <v>33</v>
@@ -16733,7 +16736,7 @@
         <v>91</v>
       </c>
       <c r="E674" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F674" s="2" t="s">
         <v>10</v>
@@ -16744,10 +16747,10 @@
     </row>
     <row r="675">
       <c r="A675" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C675" s="2" t="s">
         <v>33</v>
@@ -16756,7 +16759,7 @@
         <v>91</v>
       </c>
       <c r="E675" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F675" s="2" t="s">
         <v>10</v>
@@ -16767,10 +16770,10 @@
     </row>
     <row r="676">
       <c r="A676" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C676" s="2" t="s">
         <v>33</v>
@@ -16779,7 +16782,7 @@
         <v>91</v>
       </c>
       <c r="E676" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F676" s="2" t="s">
         <v>10</v>
@@ -16790,10 +16793,10 @@
     </row>
     <row r="677">
       <c r="A677" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C677" s="2" t="s">
         <v>33</v>
@@ -16802,7 +16805,7 @@
         <v>91</v>
       </c>
       <c r="E677" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F677" s="2" t="s">
         <v>10</v>
@@ -16813,10 +16816,10 @@
     </row>
     <row r="678">
       <c r="A678" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C678" s="2" t="s">
         <v>33</v>
@@ -16825,7 +16828,7 @@
         <v>91</v>
       </c>
       <c r="E678" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F678" s="2" t="s">
         <v>10</v>
@@ -16836,10 +16839,10 @@
     </row>
     <row r="679">
       <c r="A679" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C679" s="2" t="s">
         <v>33</v>
@@ -16848,7 +16851,7 @@
         <v>91</v>
       </c>
       <c r="E679" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F679" s="2" t="s">
         <v>10</v>
@@ -16859,10 +16862,10 @@
     </row>
     <row r="680">
       <c r="A680" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C680" s="2" t="s">
         <v>33</v>
@@ -16871,7 +16874,7 @@
         <v>294</v>
       </c>
       <c r="E680" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F680" s="2" t="s">
         <v>10</v>
@@ -16882,19 +16885,19 @@
     </row>
     <row r="681">
       <c r="A681" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C681" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D681" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E681" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F681" s="2" t="s">
         <v>10</v>
@@ -16905,10 +16908,10 @@
     </row>
     <row r="682">
       <c r="A682" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C682" s="2" t="s">
         <v>9</v>
@@ -16917,7 +16920,7 @@
         <v>294</v>
       </c>
       <c r="E682" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F682" s="2" t="s">
         <v>10</v>
@@ -16928,10 +16931,10 @@
     </row>
     <row r="683">
       <c r="A683" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C683" s="2" t="s">
         <v>33</v>
@@ -16940,7 +16943,7 @@
         <v>91</v>
       </c>
       <c r="E683" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F683" s="2" t="s">
         <v>10</v>
@@ -16951,10 +16954,10 @@
     </row>
     <row r="684">
       <c r="A684" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C684" s="2" t="s">
         <v>33</v>
@@ -16963,7 +16966,7 @@
         <v>245</v>
       </c>
       <c r="E684" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F684" s="2" t="s">
         <v>10</v>
@@ -16974,10 +16977,10 @@
     </row>
     <row r="685">
       <c r="A685" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C685" s="2" t="s">
         <v>33</v>
@@ -16986,7 +16989,7 @@
         <v>245</v>
       </c>
       <c r="E685" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F685" s="2" t="s">
         <v>10</v>
@@ -16997,10 +17000,10 @@
     </row>
     <row r="686">
       <c r="A686" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C686" s="2" t="s">
         <v>9</v>
@@ -17009,7 +17012,7 @@
         <v>91</v>
       </c>
       <c r="E686" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F686" s="2" t="s">
         <v>10</v>
@@ -17020,10 +17023,10 @@
     </row>
     <row r="687">
       <c r="A687" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C687" s="2" t="s">
         <v>9</v>
@@ -17032,7 +17035,7 @@
         <v>91</v>
       </c>
       <c r="E687" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F687" s="2" t="s">
         <v>10</v>
@@ -17043,71 +17046,71 @@
     </row>
     <row r="688">
       <c r="A688" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C688" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D688" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E688" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F688" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G688" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B689" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C689" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D689" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E689" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F689" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G689" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="C689" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D689" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="E689" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="F689" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G689" s="2" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C690" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D690" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E690" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F690" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G690" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_010.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_010.xlsx
@@ -18461,7 +18461,7 @@
         <v>129</v>
       </c>
       <c r="C746" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D746" s="2" t="s">
         <v>352</v>
@@ -18484,7 +18484,7 @@
         <v>131</v>
       </c>
       <c r="C747" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D747" s="2" t="s">
         <v>352</v>
@@ -18493,7 +18493,7 @@
         <v>132</v>
       </c>
       <c r="F747" s="2" t="s">
-        <v>10</v>
+        <v>353</v>
       </c>
       <c r="G747" s="2" t="s">
         <v>354</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_010.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_010.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5481" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5488" uniqueCount="413">
   <si>
     <t>Sezione</t>
   </si>
@@ -1245,6 +1245,12 @@
   </si>
   <si>
     <t>testoAnnotazione</t>
+  </si>
+  <si>
+    <t>Data decorrenza</t>
+  </si>
+  <si>
+    <t>dataDecorrenza</t>
   </si>
 </sst>
 </file>
@@ -1303,7 +1309,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H783"/>
+  <dimension ref="A1:H784"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -19327,6 +19333,29 @@
         <v>406</v>
       </c>
     </row>
+    <row r="784">
+      <c r="A784" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B784" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C784" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D784" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E784" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F784" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G784" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_010.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_010.xlsx
@@ -16107,7 +16107,7 @@
         <v>228</v>
       </c>
       <c r="F643" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G643" s="2" t="s">
         <v>64</v>
